--- a/graphs/archiveRunnings.xlsx
+++ b/graphs/archiveRunnings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
   <si>
     <t>6 month</t>
   </si>
@@ -57,9 +57,6 @@
     <t>month</t>
   </si>
   <si>
-    <t>  </t>
-  </si>
-  <si>
     <t>Last year</t>
   </si>
   <si>
@@ -79,6 +76,7 @@
         <color rgb="FF000000"/>
         <rFont val="Liberation Sans1"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">wo</t>
     </r>
@@ -88,6 +86,7 @@
         <color rgb="FF000000"/>
         <rFont val="Liberation Sans1"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Year</t>
     </r>
@@ -109,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -138,14 +137,10 @@
       <color rgb="FF000000"/>
       <name val="Liberation Sans1"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Sans1"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -156,6 +151,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -267,7 +263,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -280,7 +276,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -294,7 +290,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300">
+              <a:rPr b="1" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>6 month</a:t>
@@ -312,17 +308,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -337,390 +322,13 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:xVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>112.861783113739</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>176.109549117227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>224.35812347551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>345.209950867179</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>411.802046262694</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>473.131746135373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>623.23880769668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.983323413438</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>727.788831614565</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>681.754080205969</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>976.445551681484</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>766.322393605698</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1035.01988286818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1084.88798114909</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1375.83647872271</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1030.14477595894</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1755.86386426634</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1076.89578187415</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1651.4026836394</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0.485725140154162</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.438500740874629</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.397838282608353</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.387925730688704</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.338124732135973</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.311408099922318</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.310497201862126</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.322220411580731</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.315910272464974</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.302037109990771</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.264603681766873</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.288340596944481</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.239978561781693</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.256956782235666</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.253573742093923</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.290629307284112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.214839781565726</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.278300530445386</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.209992068423969</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 3</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -743,134 +351,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:xVal>
             <c:numRef>
-              <c:f>2</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -996,7 +479,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>3</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -1126,7 +609,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 5</c:f>
+              <c:f>label 2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1149,134 +632,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:xVal>
             <c:numRef>
-              <c:f>4</c:f>
+              <c:f>3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -1402,7 +760,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>5</c:f>
+              <c:f>2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -1532,7 +890,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 7</c:f>
+              <c:f>label 4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1555,134 +913,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:xVal>
             <c:numRef>
-              <c:f>6</c:f>
+              <c:f>5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -1808,7 +1041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>7</c:f>
+              <c:f>4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -1933,11 +1166,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="91885425"/>
-        <c:axId val="24730365"/>
+        <c:axId val="14831312"/>
+        <c:axId val="17235642"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91885425"/>
+        <c:axId val="14831312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1186,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Avg Block Size
@@ -1974,11 +1207,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24730365"/>
+        <c:crossAx val="17235642"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24730365"/>
+        <c:axId val="17235642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +1236,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Ratio</a:t>
@@ -2023,7 +1256,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91885425"/>
+        <c:crossAx val="14831312"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2058,7 +1291,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2072,7 +1305,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300">
+              <a:rPr b="1" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Last year</a:t>
@@ -2090,17 +1323,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -2115,390 +1337,13 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:xVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>112.861783113739</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>176.109549117227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>224.35812347551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>345.209950867179</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>411.802046262694</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>473.131746135373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>623.23880769668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.983323413438</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>727.788831614565</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>681.754080205969</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>976.445551681484</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>766.322393605698</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1035.01988286818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1084.88798114909</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1375.83647872271</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1030.14477595894</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1755.86386426634</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1076.89578187415</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1651.4026836394</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0.428272326572729</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.385876588121452</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.353007845813315</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.347282317066449</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.297932317602367</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.276589577977257</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.277768813354587</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.286310798589883</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.286869227161129</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.273790771550553</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.236310398533084</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.259309436317052</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.214271338882729</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.231407548474659</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.230610511082794</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.267020539513518</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.194149869281921</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.255940293819594</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.189772519965457</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 3</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2521,134 +1366,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:xVal>
             <c:numRef>
-              <c:f>2</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -2774,7 +1494,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>3</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -2904,7 +1624,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 5</c:f>
+              <c:f>label 2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2927,134 +1647,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:xVal>
             <c:numRef>
-              <c:f>4</c:f>
+              <c:f>3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -3180,7 +1775,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>5</c:f>
+              <c:f>2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -3310,7 +1905,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 7</c:f>
+              <c:f>label 4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3333,134 +1928,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:xVal>
             <c:numRef>
-              <c:f>6</c:f>
+              <c:f>5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -3586,7 +2056,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>7</c:f>
+              <c:f>4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -3711,11 +2181,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="59489700"/>
-        <c:axId val="23227034"/>
+        <c:axId val="53544160"/>
+        <c:axId val="48609661"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59489700"/>
+        <c:axId val="53544160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3731,7 +2201,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Avg Block Size</a:t>
@@ -3751,11 +2221,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="23227034"/>
+        <c:crossAx val="48609661"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23227034"/>
+        <c:axId val="48609661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3780,7 +2250,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Ratio</a:t>
@@ -3800,7 +2270,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="59489700"/>
+        <c:crossAx val="53544160"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3835,7 +2305,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3849,7 +2319,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300">
+              <a:rPr b="1" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>2 years</a:t>
@@ -3867,17 +2337,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -3892,390 +2351,13 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:xVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>112.861783113739</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>176.109549117227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>224.35812347551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>345.209950867179</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>411.802046262694</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>473.131746135373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>623.23880769668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530.983323413438</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>727.788831614565</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>681.754080205969</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>976.445551681484</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>766.322393605698</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1035.01988286818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1084.88798114909</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1375.83647872271</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1030.14477595894</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1755.86386426634</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1076.89578187415</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1651.4026836394</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0.362543775926307</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.329102310758445</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30342882788652</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.302006707641546</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.258025336315728</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.239172231813217</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.241988239479706</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25255081761106</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25445105222477</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.243653134958312</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.208273577431433</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.229993847734198</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1881533037845</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.206426475652408</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.204503399367401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.241278122993551</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17325167328997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.23284996103454</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.168750446555447</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 3</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4298,134 +2380,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:xVal>
             <c:numRef>
-              <c:f>2</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -4551,7 +2508,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>3</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -4681,7 +2638,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 5</c:f>
+              <c:f>label 2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4704,134 +2661,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:xVal>
             <c:numRef>
-              <c:f>4</c:f>
+              <c:f>3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -4957,7 +2789,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>5</c:f>
+              <c:f>2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -5087,7 +2919,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 7</c:f>
+              <c:f>label 4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5110,134 +2942,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:xVal>
             <c:numRef>
-              <c:f>6</c:f>
+              <c:f>5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -5363,7 +3070,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>7</c:f>
+              <c:f>4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -5488,11 +3195,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="58913233"/>
-        <c:axId val="83996616"/>
+        <c:axId val="98137645"/>
+        <c:axId val="74965072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58913233"/>
+        <c:axId val="98137645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5508,7 +3215,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Avg Block Size</a:t>
@@ -5528,11 +3235,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83996616"/>
+        <c:crossAx val="74965072"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83996616"/>
+        <c:axId val="74965072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5557,7 +3264,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Ratio</a:t>
@@ -5577,7 +3284,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="58913233"/>
+        <c:crossAx val="98137645"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5617,15 +3324,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>192600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>559800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:colOff>613080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5633,8 +3340,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15310440" y="105840"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="15364440" y="87840"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5647,15 +3354,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
+      <xdr:colOff>185040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:colOff>605520</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5663,8 +3370,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15302880" y="4425120"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="15356880" y="4407120"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5676,16 +3383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>742320</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33840</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>401040</xdr:colOff>
+      <xdr:colOff>454320</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5693,8 +3400,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15151680" y="7965720"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="15205680" y="7947720"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5712,10 +3419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="E100:G100 O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6405,9 +4112,6 @@
       <c r="O18" s="0" t="n">
         <v>0.290629307284112</v>
       </c>
-      <c r="R18" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -6745,22 +4449,22 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>11</v>
       </c>
       <c r="J45" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7736,10 +5440,10 @@
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7768,10 +5472,10 @@
         <v>2</v>
       </c>
       <c r="K88" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="M88" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8742,10 +6446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E100" activeCellId="0" sqref="E100:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8757,8 +6461,10 @@
     <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6275303643725"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="10.6275303643725"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6275303643725"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.995951417004"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="10.6275303643725"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8783,10 +6489,10 @@
       <c r="K1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8818,13 +6524,13 @@
       <c r="K2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8851,18 +6557,24 @@
         <v>100</v>
       </c>
       <c r="J3" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>305.769928971697</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>0.405559272262192</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>103.494720238677</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>0.524511674036988</v>
       </c>
     </row>
@@ -8889,18 +6601,24 @@
         <v>150</v>
       </c>
       <c r="J4" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>466.931199458631</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>0.363581804649185</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>161.990429809269</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>0.454353654971457</v>
       </c>
     </row>
@@ -8927,18 +6645,24 @@
         <v>200</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>600.581242611654</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>0.340595468812963</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>192.810214544067</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>0.437017143892992</v>
       </c>
     </row>
@@ -8965,18 +6689,24 @@
         <v>250</v>
       </c>
       <c r="J6" s="0" t="n">
+        <v>1251</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>621</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>814.758063919752</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>0.305255160635546</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>287.491706423398</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>0.397547480685012</v>
       </c>
     </row>
@@ -9003,18 +6733,24 @@
         <v>300</v>
       </c>
       <c r="J7" s="0" t="n">
+        <v>1501</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>1052.03854317287</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>0.286395947864871</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>419.512827506846</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>0.378198995955275</v>
       </c>
     </row>
@@ -9041,18 +6777,24 @@
         <v>350</v>
       </c>
       <c r="J8" s="0" t="n">
+        <v>1751</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>871</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>1124.99284950306</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>0.284473733338499</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>423.055158924448</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>0.355880078689699</v>
       </c>
     </row>
@@ -9079,18 +6821,24 @@
         <v>400</v>
       </c>
       <c r="J9" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>1206.63863671213</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>0.267867386666292</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>418.269533888814</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>0.334351888176728</v>
       </c>
     </row>
@@ -9117,18 +6865,24 @@
         <v>450</v>
       </c>
       <c r="J10" s="0" t="n">
+        <v>2251</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1121</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>1557.05233674074</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>0.236738559928588</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>614.088661374743</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>0.293941391925161</v>
       </c>
     </row>
@@ -9155,18 +6909,24 @@
         <v>500</v>
       </c>
       <c r="J11" s="0" t="n">
+        <v>2501</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1251</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>1651.41076873964</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>0.251651055385142</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>585.854118922896</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>0.35023175949554</v>
       </c>
     </row>
@@ -9193,18 +6953,24 @@
         <v>550</v>
       </c>
       <c r="J12" s="0" t="n">
+        <v>2751</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1371</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>1830.78323536227</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>0.248144509204521</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>696.627465616338</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>0.33894558289428</v>
       </c>
     </row>
@@ -9231,18 +6997,24 @@
         <v>600</v>
       </c>
       <c r="J13" s="0" t="n">
+        <v>3001</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1501</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>2067.42872491427</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>0.245708112562289</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>772.806145217572</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>0.313021237008312</v>
       </c>
     </row>
@@ -9269,18 +7041,24 @@
         <v>650</v>
       </c>
       <c r="J14" s="0" t="n">
+        <v>3251</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1621</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>2175.41215308844</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>0.22511343919814</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>805.845856011652</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>0.294676528668462</v>
       </c>
     </row>
@@ -9307,18 +7085,24 @@
         <v>700</v>
       </c>
       <c r="J15" s="0" t="n">
+        <v>3501</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1751</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>2308.71035744086</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>0.232369594350125</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>882.740871570471</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>0.280827299518328</v>
       </c>
     </row>
@@ -9345,18 +7129,24 @@
         <v>750</v>
       </c>
       <c r="J16" s="0" t="n">
+        <v>3751</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1871</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>2408.50395588857</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.225183264504556</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>892.100722151325</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.289484490580728</v>
       </c>
     </row>
@@ -9383,18 +7173,24 @@
         <v>800</v>
       </c>
       <c r="J17" s="0" t="n">
+        <v>4001</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <v>2591.11926901876</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0.198427923038837</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>826.838214050031</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>0.273491002240484</v>
       </c>
     </row>
@@ -9421,18 +7217,24 @@
         <v>850</v>
       </c>
       <c r="J18" s="0" t="n">
+        <v>4251</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2121</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>2907.32613443273</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>0.19455362717264</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>1044.66558142264</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>0.270593488229482</v>
       </c>
     </row>
@@ -9459,18 +7261,24 @@
         <v>900</v>
       </c>
       <c r="J19" s="0" t="n">
+        <v>4501</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>2251</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <v>3213.15662929119</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.182660689632835</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>1243.08363246114</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>0.253402141670243</v>
       </c>
     </row>
@@ -9497,18 +7305,24 @@
         <v>950</v>
       </c>
       <c r="J20" s="0" t="n">
+        <v>4751</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2371</v>
+      </c>
+      <c r="L20" s="0" t="n">
         <v>3226.15301186036</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>0.185185077744198</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>950</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>1295.51961245325</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>0.246100668521059</v>
       </c>
     </row>
@@ -9535,39 +7349,45 @@
         <v>1000</v>
       </c>
       <c r="J21" s="0" t="n">
+        <v>5001</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>2501</v>
+      </c>
+      <c r="L21" s="0" t="n">
         <v>3248.84490838425</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>0.203030565199311</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>1148.49410646982</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>0.275706894407989</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>11</v>
       </c>
       <c r="J45" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>14</v>
+      <c r="O45" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9589,13 +7409,13 @@
       <c r="G46" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="0" t="s">
+      <c r="O46" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="N46" s="0" t="s">
+      <c r="P46" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="0" t="s">
+      <c r="Q46" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9622,18 +7442,24 @@
         <v>100</v>
       </c>
       <c r="J47" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="L47" s="0" t="n">
         <v>305.769928971697</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="M47" s="0" t="n">
         <v>0.359041842342567</v>
       </c>
-      <c r="M47" s="0" t="n">
+      <c r="O47" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N47" s="0" t="n">
+      <c r="P47" s="0" t="n">
         <v>103.494720238677</v>
       </c>
-      <c r="O47" s="0" t="n">
+      <c r="Q47" s="0" t="n">
         <v>0.466523906574263</v>
       </c>
     </row>
@@ -9660,18 +7486,24 @@
         <v>150</v>
       </c>
       <c r="J48" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="L48" s="0" t="n">
         <v>466.931199458631</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="M48" s="0" t="n">
         <v>0.324942017647884</v>
       </c>
-      <c r="M48" s="0" t="n">
+      <c r="O48" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="N48" s="0" t="n">
+      <c r="P48" s="0" t="n">
         <v>161.990429809269</v>
       </c>
-      <c r="O48" s="0" t="n">
+      <c r="Q48" s="0" t="n">
         <v>0.405395180641114</v>
       </c>
     </row>
@@ -9698,18 +7530,24 @@
         <v>200</v>
       </c>
       <c r="J49" s="0" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="L49" s="0" t="n">
         <v>600.581242611654</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="M49" s="0" t="n">
         <v>0.306389026884605</v>
       </c>
-      <c r="M49" s="0" t="n">
+      <c r="O49" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="N49" s="0" t="n">
+      <c r="P49" s="0" t="n">
         <v>192.810214544067</v>
       </c>
-      <c r="O49" s="0" t="n">
+      <c r="Q49" s="0" t="n">
         <v>0.390873265576145</v>
       </c>
     </row>
@@ -9736,18 +7574,24 @@
         <v>250</v>
       </c>
       <c r="J50" s="0" t="n">
+        <v>1251</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>621</v>
+      </c>
+      <c r="L50" s="0" t="n">
         <v>814.758063919752</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="M50" s="0" t="n">
         <v>0.274635531596993</v>
       </c>
-      <c r="M50" s="0" t="n">
+      <c r="O50" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="N50" s="0" t="n">
+      <c r="P50" s="0" t="n">
         <v>287.491706423398</v>
       </c>
-      <c r="O50" s="0" t="n">
+      <c r="Q50" s="0" t="n">
         <v>0.357035870121853</v>
       </c>
     </row>
@@ -9774,18 +7618,24 @@
         <v>300</v>
       </c>
       <c r="J51" s="0" t="n">
+        <v>1501</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="L51" s="0" t="n">
         <v>1052.03854317287</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="M51" s="0" t="n">
         <v>0.257577125371771</v>
       </c>
-      <c r="M51" s="0" t="n">
+      <c r="O51" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="N51" s="0" t="n">
+      <c r="P51" s="0" t="n">
         <v>419.512827506846</v>
       </c>
-      <c r="O51" s="0" t="n">
+      <c r="Q51" s="0" t="n">
         <v>0.339427030023287</v>
       </c>
     </row>
@@ -9812,18 +7662,24 @@
         <v>350</v>
       </c>
       <c r="J52" s="0" t="n">
+        <v>1751</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>871</v>
+      </c>
+      <c r="L52" s="0" t="n">
         <v>1124.99284950306</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="M52" s="0" t="n">
         <v>0.2609573344071</v>
       </c>
-      <c r="M52" s="0" t="n">
+      <c r="O52" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="N52" s="0" t="n">
+      <c r="P52" s="0" t="n">
         <v>423.055158924448</v>
       </c>
-      <c r="O52" s="0" t="n">
+      <c r="Q52" s="0" t="n">
         <v>0.319778068286873</v>
       </c>
     </row>
@@ -9850,18 +7706,24 @@
         <v>400</v>
       </c>
       <c r="J53" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L53" s="0" t="n">
         <v>1206.63863671213</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="M53" s="0" t="n">
         <v>0.241023011482487</v>
       </c>
-      <c r="M53" s="0" t="n">
+      <c r="O53" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="N53" s="0" t="n">
+      <c r="P53" s="0" t="n">
         <v>418.269533888814</v>
       </c>
-      <c r="O53" s="0" t="n">
+      <c r="Q53" s="0" t="n">
         <v>0.301568824709643</v>
       </c>
     </row>
@@ -9888,18 +7750,24 @@
         <v>450</v>
       </c>
       <c r="J54" s="0" t="n">
+        <v>2251</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>1121</v>
+      </c>
+      <c r="L54" s="0" t="n">
         <v>1557.05233674074</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="M54" s="0" t="n">
         <v>0.213691429611979</v>
       </c>
-      <c r="M54" s="0" t="n">
+      <c r="O54" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="N54" s="0" t="n">
+      <c r="P54" s="0" t="n">
         <v>614.088661374743</v>
       </c>
-      <c r="O54" s="0" t="n">
+      <c r="Q54" s="0" t="n">
         <v>0.263743657648758</v>
       </c>
     </row>
@@ -9926,18 +7794,24 @@
         <v>500</v>
       </c>
       <c r="J55" s="0" t="n">
+        <v>2501</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>1251</v>
+      </c>
+      <c r="L55" s="0" t="n">
         <v>1651.41076873964</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="M55" s="0" t="n">
         <v>0.229254313602245</v>
       </c>
-      <c r="M55" s="0" t="n">
+      <c r="O55" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="N55" s="0" t="n">
+      <c r="P55" s="0" t="n">
         <v>585.854118922896</v>
       </c>
-      <c r="O55" s="0" t="n">
+      <c r="Q55" s="0" t="n">
         <v>0.318479881855447</v>
       </c>
     </row>
@@ -9964,18 +7838,24 @@
         <v>550</v>
       </c>
       <c r="J56" s="0" t="n">
+        <v>2751</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>1371</v>
+      </c>
+      <c r="L56" s="0" t="n">
         <v>1830.78323536227</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="M56" s="0" t="n">
         <v>0.228086011158845</v>
       </c>
-      <c r="M56" s="0" t="n">
+      <c r="O56" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="N56" s="0" t="n">
+      <c r="P56" s="0" t="n">
         <v>696.627465616338</v>
       </c>
-      <c r="O56" s="0" t="n">
+      <c r="Q56" s="0" t="n">
         <v>0.309063198928643</v>
       </c>
     </row>
@@ -10002,18 +7882,24 @@
         <v>600</v>
       </c>
       <c r="J57" s="0" t="n">
+        <v>3001</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>1501</v>
+      </c>
+      <c r="L57" s="0" t="n">
         <v>2067.42872491427</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="M57" s="0" t="n">
         <v>0.22392793139993</v>
       </c>
-      <c r="M57" s="0" t="n">
+      <c r="O57" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="N57" s="0" t="n">
+      <c r="P57" s="0" t="n">
         <v>772.806145217572</v>
       </c>
-      <c r="O57" s="0" t="n">
+      <c r="Q57" s="0" t="n">
         <v>0.28580326386727</v>
       </c>
     </row>
@@ -10040,18 +7926,24 @@
         <v>650</v>
       </c>
       <c r="J58" s="0" t="n">
+        <v>3251</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>1621</v>
+      </c>
+      <c r="L58" s="0" t="n">
         <v>2175.41215308844</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="M58" s="0" t="n">
         <v>0.205834779494785</v>
       </c>
-      <c r="M58" s="0" t="n">
+      <c r="O58" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="N58" s="0" t="n">
+      <c r="P58" s="0" t="n">
         <v>805.845856011652</v>
       </c>
-      <c r="O58" s="0" t="n">
+      <c r="Q58" s="0" t="n">
         <v>0.267808972636776</v>
       </c>
     </row>
@@ -10078,18 +7970,24 @@
         <v>700</v>
       </c>
       <c r="J59" s="0" t="n">
+        <v>3501</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>1751</v>
+      </c>
+      <c r="L59" s="0" t="n">
         <v>2308.71035744086</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="M59" s="0" t="n">
         <v>0.215156700931377</v>
       </c>
-      <c r="M59" s="0" t="n">
+      <c r="O59" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="N59" s="0" t="n">
+      <c r="P59" s="0" t="n">
         <v>882.740871570471</v>
       </c>
-      <c r="O59" s="0" t="n">
+      <c r="Q59" s="0" t="n">
         <v>0.254642811164412</v>
       </c>
     </row>
@@ -10116,18 +8014,24 @@
         <v>750</v>
       </c>
       <c r="J60" s="0" t="n">
+        <v>3751</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>1871</v>
+      </c>
+      <c r="L60" s="0" t="n">
         <v>2408.50395588857</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="M60" s="0" t="n">
         <v>0.210131253750348</v>
       </c>
-      <c r="M60" s="0" t="n">
+      <c r="O60" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="N60" s="0" t="n">
+      <c r="P60" s="0" t="n">
         <v>892.100722151325</v>
       </c>
-      <c r="O60" s="0" t="n">
+      <c r="Q60" s="0" t="n">
         <v>0.2660252427956</v>
       </c>
     </row>
@@ -10154,18 +8058,24 @@
         <v>800</v>
       </c>
       <c r="J61" s="0" t="n">
+        <v>4001</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="L61" s="0" t="n">
         <v>2591.11926901876</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="M61" s="0" t="n">
         <v>0.182102502906862</v>
       </c>
-      <c r="M61" s="0" t="n">
+      <c r="O61" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="N61" s="0" t="n">
+      <c r="P61" s="0" t="n">
         <v>826.838214050031</v>
       </c>
-      <c r="O61" s="0" t="n">
+      <c r="Q61" s="0" t="n">
         <v>0.248852731907704</v>
       </c>
     </row>
@@ -10192,18 +8102,24 @@
         <v>850</v>
       </c>
       <c r="J62" s="0" t="n">
+        <v>4251</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>2121</v>
+      </c>
+      <c r="L62" s="0" t="n">
         <v>2907.32613443273</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="M62" s="0" t="n">
         <v>0.175067213415687</v>
       </c>
-      <c r="M62" s="0" t="n">
+      <c r="O62" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="N62" s="0" t="n">
+      <c r="P62" s="0" t="n">
         <v>1044.66558142264</v>
       </c>
-      <c r="O62" s="0" t="n">
+      <c r="Q62" s="0" t="n">
         <v>0.242339574436045</v>
       </c>
     </row>
@@ -10230,18 +8146,24 @@
         <v>900</v>
       </c>
       <c r="J63" s="0" t="n">
+        <v>4501</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>2251</v>
+      </c>
+      <c r="L63" s="0" t="n">
         <v>3213.15662929119</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="M63" s="0" t="n">
         <v>0.167587704432063</v>
       </c>
-      <c r="M63" s="0" t="n">
+      <c r="O63" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="N63" s="0" t="n">
+      <c r="P63" s="0" t="n">
         <v>1243.08363246114</v>
       </c>
-      <c r="O63" s="0" t="n">
+      <c r="Q63" s="0" t="n">
         <v>0.231518404378507</v>
       </c>
     </row>
@@ -10268,18 +8190,24 @@
         <v>950</v>
       </c>
       <c r="J64" s="0" t="n">
+        <v>4751</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>2371</v>
+      </c>
+      <c r="L64" s="0" t="n">
         <v>3226.15301186036</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="M64" s="0" t="n">
         <v>0.170435222217489</v>
       </c>
-      <c r="M64" s="0" t="n">
+      <c r="O64" s="0" t="n">
         <v>950</v>
       </c>
-      <c r="N64" s="0" t="n">
+      <c r="P64" s="0" t="n">
         <v>1295.51961245325</v>
       </c>
-      <c r="O64" s="0" t="n">
+      <c r="Q64" s="0" t="n">
         <v>0.223507094634429</v>
       </c>
     </row>
@@ -10306,30 +8234,36 @@
         <v>1000</v>
       </c>
       <c r="J65" s="0" t="n">
+        <v>5001</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>2501</v>
+      </c>
+      <c r="L65" s="0" t="n">
         <v>3248.84490838425</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="M65" s="0" t="n">
         <v>0.189686264518819</v>
       </c>
-      <c r="M65" s="0" t="n">
+      <c r="O65" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="N65" s="0" t="n">
+      <c r="P65" s="0" t="n">
         <v>1148.49410646982</v>
       </c>
-      <c r="O65" s="0" t="n">
+      <c r="Q65" s="0" t="n">
         <v>0.253576280676554</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" s="0" t="s">
-        <v>20</v>
+      <c r="O87" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10358,15 +8292,15 @@
         <v>2</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M88" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="N88" s="0" t="s">
+      <c r="P88" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O88" s="0" t="s">
+      <c r="Q88" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10393,18 +8327,24 @@
         <v>100</v>
       </c>
       <c r="J89" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="L89" s="0" t="n">
         <v>305.769928971697</v>
       </c>
-      <c r="K89" s="0" t="n">
+      <c r="M89" s="0" t="n">
         <v>0.312653119877993</v>
       </c>
-      <c r="M89" s="0" t="n">
+      <c r="O89" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N89" s="0" t="n">
+      <c r="P89" s="0" t="n">
         <v>103.494720238677</v>
       </c>
-      <c r="O89" s="0" t="n">
+      <c r="Q89" s="0" t="n">
         <v>0.398044604256309</v>
       </c>
     </row>
@@ -10431,18 +8371,24 @@
         <v>150</v>
       </c>
       <c r="J90" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="L90" s="0" t="n">
         <v>466.931199458631</v>
       </c>
-      <c r="K90" s="0" t="n">
+      <c r="M90" s="0" t="n">
         <v>0.28302114215056</v>
       </c>
-      <c r="M90" s="0" t="n">
+      <c r="O90" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="N90" s="0" t="n">
+      <c r="P90" s="0" t="n">
         <v>161.990429809269</v>
       </c>
-      <c r="O90" s="0" t="n">
+      <c r="Q90" s="0" t="n">
         <v>0.348064866937491</v>
       </c>
     </row>
@@ -10469,18 +8415,24 @@
         <v>200</v>
       </c>
       <c r="J91" s="0" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="L91" s="0" t="n">
         <v>600.581242611654</v>
       </c>
-      <c r="K91" s="0" t="n">
+      <c r="M91" s="0" t="n">
         <v>0.271871420852192</v>
       </c>
-      <c r="M91" s="0" t="n">
+      <c r="O91" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="N91" s="0" t="n">
+      <c r="P91" s="0" t="n">
         <v>192.810214544067</v>
       </c>
-      <c r="O91" s="0" t="n">
+      <c r="Q91" s="0" t="n">
         <v>0.339019225300799</v>
       </c>
     </row>
@@ -10507,18 +8459,24 @@
         <v>250</v>
       </c>
       <c r="J92" s="0" t="n">
+        <v>1251</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>621</v>
+      </c>
+      <c r="L92" s="0" t="n">
         <v>814.758063919752</v>
       </c>
-      <c r="K92" s="0" t="n">
+      <c r="M92" s="0" t="n">
         <v>0.245817663536841</v>
       </c>
-      <c r="M92" s="0" t="n">
+      <c r="O92" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="N92" s="0" t="n">
+      <c r="P92" s="0" t="n">
         <v>287.491706423398</v>
       </c>
-      <c r="O92" s="0" t="n">
+      <c r="Q92" s="0" t="n">
         <v>0.311283890192441</v>
       </c>
     </row>
@@ -10545,18 +8503,24 @@
         <v>300</v>
       </c>
       <c r="J93" s="0" t="n">
+        <v>1501</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="L93" s="0" t="n">
         <v>1052.03854317287</v>
       </c>
-      <c r="K93" s="0" t="n">
+      <c r="M93" s="0" t="n">
         <v>0.229944683573738</v>
       </c>
-      <c r="M93" s="0" t="n">
+      <c r="O93" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="N93" s="0" t="n">
+      <c r="P93" s="0" t="n">
         <v>419.512827506846</v>
       </c>
-      <c r="O93" s="0" t="n">
+      <c r="Q93" s="0" t="n">
         <v>0.296849540946787</v>
       </c>
     </row>
@@ -10583,18 +8547,24 @@
         <v>350</v>
       </c>
       <c r="J94" s="0" t="n">
+        <v>1751</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>871</v>
+      </c>
+      <c r="L94" s="0" t="n">
         <v>1124.99284950306</v>
       </c>
-      <c r="K94" s="0" t="n">
+      <c r="M94" s="0" t="n">
         <v>0.236662175295081</v>
       </c>
-      <c r="M94" s="0" t="n">
+      <c r="O94" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="N94" s="0" t="n">
+      <c r="P94" s="0" t="n">
         <v>423.055158924448</v>
       </c>
-      <c r="O94" s="0" t="n">
+      <c r="Q94" s="0" t="n">
         <v>0.280897799624021</v>
       </c>
     </row>
@@ -10621,18 +8591,24 @@
         <v>400</v>
       </c>
       <c r="J95" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L95" s="0" t="n">
         <v>1206.63863671213</v>
       </c>
-      <c r="K95" s="0" t="n">
+      <c r="M95" s="0" t="n">
         <v>0.214425628998118</v>
       </c>
-      <c r="M95" s="0" t="n">
+      <c r="O95" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="N95" s="0" t="n">
+      <c r="P95" s="0" t="n">
         <v>418.269533888814</v>
       </c>
-      <c r="O95" s="0" t="n">
+      <c r="Q95" s="0" t="n">
         <v>0.266845558909624</v>
       </c>
     </row>
@@ -10659,18 +8635,24 @@
         <v>450</v>
       </c>
       <c r="J96" s="0" t="n">
+        <v>2251</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>1121</v>
+      </c>
+      <c r="L96" s="0" t="n">
         <v>1557.05233674074</v>
       </c>
-      <c r="K96" s="0" t="n">
+      <c r="M96" s="0" t="n">
         <v>0.191985470815162</v>
       </c>
-      <c r="M96" s="0" t="n">
+      <c r="O96" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="N96" s="0" t="n">
+      <c r="P96" s="0" t="n">
         <v>614.088661374743</v>
       </c>
-      <c r="O96" s="0" t="n">
+      <c r="Q96" s="0" t="n">
         <v>0.232613537755233</v>
       </c>
     </row>
@@ -10697,18 +8679,24 @@
         <v>500</v>
       </c>
       <c r="J97" s="0" t="n">
+        <v>2501</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>1251</v>
+      </c>
+      <c r="L97" s="0" t="n">
         <v>1651.41076873964</v>
       </c>
-      <c r="K97" s="0" t="n">
+      <c r="M97" s="0" t="n">
         <v>0.205634801665679</v>
       </c>
-      <c r="M97" s="0" t="n">
+      <c r="O97" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="N97" s="0" t="n">
+      <c r="P97" s="0" t="n">
         <v>585.854118922896</v>
       </c>
-      <c r="O97" s="0" t="n">
+      <c r="Q97" s="0" t="n">
         <v>0.28364695938989</v>
       </c>
     </row>
@@ -10735,18 +8723,24 @@
         <v>550</v>
       </c>
       <c r="J98" s="0" t="n">
+        <v>2751</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>1371</v>
+      </c>
+      <c r="L98" s="0" t="n">
         <v>1830.78323536227</v>
       </c>
-      <c r="K98" s="0" t="n">
+      <c r="M98" s="0" t="n">
         <v>0.207651534619249</v>
       </c>
-      <c r="M98" s="0" t="n">
+      <c r="O98" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="N98" s="0" t="n">
+      <c r="P98" s="0" t="n">
         <v>696.627465616338</v>
       </c>
-      <c r="O98" s="0" t="n">
+      <c r="Q98" s="0" t="n">
         <v>0.275699527761581</v>
       </c>
     </row>
@@ -10773,18 +8767,24 @@
         <v>600</v>
       </c>
       <c r="J99" s="0" t="n">
+        <v>3001</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>1501</v>
+      </c>
+      <c r="L99" s="0" t="n">
         <v>2067.42872491427</v>
       </c>
-      <c r="K99" s="0" t="n">
+      <c r="M99" s="0" t="n">
         <v>0.202199847903633</v>
       </c>
-      <c r="M99" s="0" t="n">
+      <c r="O99" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="N99" s="0" t="n">
+      <c r="P99" s="0" t="n">
         <v>772.806145217572</v>
       </c>
-      <c r="O99" s="0" t="n">
+      <c r="Q99" s="0" t="n">
         <v>0.256027693945715</v>
       </c>
     </row>
@@ -10811,18 +8811,24 @@
         <v>650</v>
       </c>
       <c r="J100" s="0" t="n">
+        <v>3251</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>1621</v>
+      </c>
+      <c r="L100" s="0" t="n">
         <v>2175.41215308844</v>
       </c>
-      <c r="K100" s="0" t="n">
+      <c r="M100" s="0" t="n">
         <v>0.186258267611667</v>
       </c>
-      <c r="M100" s="0" t="n">
+      <c r="O100" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="N100" s="0" t="n">
+      <c r="P100" s="0" t="n">
         <v>805.845856011652</v>
       </c>
-      <c r="O100" s="0" t="n">
+      <c r="Q100" s="0" t="n">
         <v>0.23904525807876</v>
       </c>
     </row>
@@ -10849,18 +8855,24 @@
         <v>700</v>
       </c>
       <c r="J101" s="0" t="n">
+        <v>3501</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>1751</v>
+      </c>
+      <c r="L101" s="0" t="n">
         <v>2308.71035744086</v>
       </c>
-      <c r="K101" s="0" t="n">
+      <c r="M101" s="0" t="n">
         <v>0.197908173156827</v>
       </c>
-      <c r="M101" s="0" t="n">
+      <c r="O101" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="N101" s="0" t="n">
+      <c r="P101" s="0" t="n">
         <v>882.740871570471</v>
       </c>
-      <c r="O101" s="0" t="n">
+      <c r="Q101" s="0" t="n">
         <v>0.227632256971971</v>
       </c>
     </row>
@@ -10887,18 +8899,24 @@
         <v>750</v>
       </c>
       <c r="J102" s="0" t="n">
+        <v>3751</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>1871</v>
+      </c>
+      <c r="L102" s="0" t="n">
         <v>2408.50395588857</v>
       </c>
-      <c r="K102" s="0" t="n">
+      <c r="M102" s="0" t="n">
         <v>0.193063732242399</v>
       </c>
-      <c r="M102" s="0" t="n">
+      <c r="O102" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="N102" s="0" t="n">
+      <c r="P102" s="0" t="n">
         <v>892.100722151325</v>
       </c>
-      <c r="O102" s="0" t="n">
+      <c r="Q102" s="0" t="n">
         <v>0.239293142720315</v>
       </c>
     </row>
@@ -10925,18 +8943,24 @@
         <v>800</v>
       </c>
       <c r="J103" s="0" t="n">
+        <v>4001</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="L103" s="0" t="n">
         <v>2591.11926901876</v>
       </c>
-      <c r="K103" s="0" t="n">
+      <c r="M103" s="0" t="n">
         <v>0.166061168812784</v>
       </c>
-      <c r="M103" s="0" t="n">
+      <c r="O103" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="N103" s="0" t="n">
+      <c r="P103" s="0" t="n">
         <v>826.838214050031</v>
       </c>
-      <c r="O103" s="0" t="n">
+      <c r="Q103" s="0" t="n">
         <v>0.223001499492725</v>
       </c>
     </row>
@@ -10963,18 +8987,24 @@
         <v>850</v>
       </c>
       <c r="J104" s="0" t="n">
+        <v>4251</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>2121</v>
+      </c>
+      <c r="L104" s="0" t="n">
         <v>2907.32613443273</v>
       </c>
-      <c r="K104" s="0" t="n">
+      <c r="M104" s="0" t="n">
         <v>0.159951553053873</v>
       </c>
-      <c r="M104" s="0" t="n">
+      <c r="O104" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="N104" s="0" t="n">
+      <c r="P104" s="0" t="n">
         <v>1044.66558142264</v>
       </c>
-      <c r="O104" s="0" t="n">
+      <c r="Q104" s="0" t="n">
         <v>0.219049532859484</v>
       </c>
     </row>
@@ -11001,18 +9031,24 @@
         <v>900</v>
       </c>
       <c r="J105" s="0" t="n">
+        <v>4501</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>2251</v>
+      </c>
+      <c r="L105" s="0" t="n">
         <v>3213.15662929119</v>
       </c>
-      <c r="K105" s="0" t="n">
+      <c r="M105" s="0" t="n">
         <v>0.15309210052881</v>
       </c>
-      <c r="M105" s="0" t="n">
+      <c r="O105" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="N105" s="0" t="n">
+      <c r="P105" s="0" t="n">
         <v>1243.08363246114</v>
       </c>
-      <c r="O105" s="0" t="n">
+      <c r="Q105" s="0" t="n">
         <v>0.209437268181243</v>
       </c>
     </row>
@@ -11039,18 +9075,24 @@
         <v>950</v>
       </c>
       <c r="J106" s="0" t="n">
+        <v>4751</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>2371</v>
+      </c>
+      <c r="L106" s="0" t="n">
         <v>3226.15301186036</v>
       </c>
-      <c r="K106" s="0" t="n">
+      <c r="M106" s="0" t="n">
         <v>0.155819528327659</v>
       </c>
-      <c r="M106" s="0" t="n">
+      <c r="O106" s="0" t="n">
         <v>950</v>
       </c>
-      <c r="N106" s="0" t="n">
+      <c r="P106" s="0" t="n">
         <v>1295.51961245325</v>
       </c>
-      <c r="O106" s="0" t="n">
+      <c r="Q106" s="0" t="n">
         <v>0.20011711079724</v>
       </c>
     </row>
@@ -11077,18 +9119,24 @@
         <v>1000</v>
       </c>
       <c r="J107" s="0" t="n">
+        <v>5001</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>2501</v>
+      </c>
+      <c r="L107" s="0" t="n">
         <v>3248.84490838425</v>
       </c>
-      <c r="K107" s="0" t="n">
+      <c r="M107" s="0" t="n">
         <v>0.174595246675325</v>
       </c>
-      <c r="M107" s="0" t="n">
+      <c r="O107" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="N107" s="0" t="n">
+      <c r="P107" s="0" t="n">
         <v>1148.49410646982</v>
       </c>
-      <c r="O107" s="0" t="n">
+      <c r="Q107" s="0" t="n">
         <v>0.228195896698892</v>
       </c>
     </row>

--- a/graphs/archiveRunnings.xlsx
+++ b/graphs/archiveRunnings.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\se\Downloads\Thesis-master\graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Desktop/Thesis/graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23400" windowHeight="16500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="md5" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -250,7 +258,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="1">
+              <a:rPr lang="en-US" sz="1300" b="1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>6 month</a:t>
@@ -258,6 +266,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -308,13 +317,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>49.947532522380598</c:v>
+                  <c:v>49.9475325223806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.1023834741233</c:v>
+                  <c:v>75.10238347412329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.26305644991599</c:v>
+                  <c:v>101.263056449916</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>122.990357168969</c:v>
@@ -326,7 +335,7 @@
                   <c:v>167.920995780217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>191.403822761566</c:v>
+                  <c:v>191.4038227615659</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>213.442977734934</c:v>
@@ -335,88 +344,88 @@
                   <c:v>237.451714560016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>260.223151897359</c:v>
+                  <c:v>260.2231518973589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>279.97706864119601</c:v>
+                  <c:v>279.977068641196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>301.08173963195799</c:v>
+                  <c:v>301.081739631958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>320.10476922467001</c:v>
+                  <c:v>320.10476922467</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>339.06332059948301</c:v>
+                  <c:v>339.063320599483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>356.20603415956901</c:v>
+                  <c:v>356.206034159569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>379.69918402325101</c:v>
+                  <c:v>379.699184023251</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.86785063939402</c:v>
+                  <c:v>400.867850639394</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>421.03520881865097</c:v>
+                  <c:v>421.0352088186509</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>439.970280332931</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>463.072318154193</c:v>
+                  <c:v>463.0723181541929</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>483.325211735577</c:v>
+                  <c:v>483.3252117355769</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>507.03461924535702</c:v>
+                  <c:v>507.034619245357</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>525.52543573107698</c:v>
+                  <c:v>525.525435731077</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>550.94718703102103</c:v>
+                  <c:v>550.9471870310209</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>567.74704977476404</c:v>
+                  <c:v>567.7470497747639</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>587.69351048881401</c:v>
+                  <c:v>587.693510488814</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>609.723925192244</c:v>
+                  <c:v>609.7239251922439</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>630.97707314059903</c:v>
+                  <c:v>630.977073140599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>648.38348960139501</c:v>
+                  <c:v>648.383489601395</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>668.99650699154097</c:v>
+                  <c:v>668.996506991541</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>695.08779053338799</c:v>
+                  <c:v>695.0877905333882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>719.85582097085603</c:v>
+                  <c:v>719.855820970856</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>745.183483568469</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>767.31821742305499</c:v>
+                  <c:v>767.3182174230549</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>793.20668059125899</c:v>
+                  <c:v>793.206680591259</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>814.96858124265805</c:v>
+                  <c:v>814.968581242658</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>832.76362061028601</c:v>
+                  <c:v>832.763620610286</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>850.92396461234</c:v>
@@ -434,43 +443,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.60673519977846901</c:v>
+                  <c:v>0.606735199778469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55930301709496699</c:v>
+                  <c:v>0.559303017094967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52523119678538999</c:v>
+                  <c:v>0.52523119678539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49833572600440201</c:v>
+                  <c:v>0.498335726004402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47433047864619898</c:v>
+                  <c:v>0.474330478646199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45878064250655698</c:v>
+                  <c:v>0.458780642506557</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.44314784082399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42900616137501002</c:v>
+                  <c:v>0.42900616137501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41720859321964798</c:v>
+                  <c:v>0.417208593219648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40640621000906202</c:v>
+                  <c:v>0.406406210009062</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39895632704843698</c:v>
+                  <c:v>0.398956327048437</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38956664391421902</c:v>
+                  <c:v>0.389566643914219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38345744354163203</c:v>
+                  <c:v>0.383457443541632</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.377444983563825</c:v>
@@ -479,22 +488,22 @@
                   <c:v>0.372107910653732</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36087582138363999</c:v>
+                  <c:v>0.36087582138364</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35603584230197799</c:v>
+                  <c:v>0.356035842301978</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35075506441867199</c:v>
+                  <c:v>0.350755064418672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.34672834153138599</c:v>
+                  <c:v>0.346728341531386</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.34167985695661202</c:v>
+                  <c:v>0.341679856956612</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33792418856284401</c:v>
+                  <c:v>0.337924188562844</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.333837965959628</c:v>
@@ -503,31 +512,31 @@
                   <c:v>0.329623668858539</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.32580049984543102</c:v>
+                  <c:v>0.325800499845431</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.322031183788342</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.31891963661534201</c:v>
+                  <c:v>0.318919636615342</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.316540088340724</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.31417737324337103</c:v>
+                  <c:v>0.314177373243371</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.31208086771968102</c:v>
+                  <c:v>0.312080867719681</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30981844349839299</c:v>
+                  <c:v>0.309818443498393</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.308056497909172</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.30624561831136998</c:v>
+                  <c:v>0.30624561831137</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.304561348919347</c:v>
@@ -536,19 +545,19 @@
                   <c:v>0.302461284643323</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.29885161296003598</c:v>
+                  <c:v>0.298851612960036</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.29655102143430601</c:v>
+                  <c:v>0.296551021434306</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.29457529614162598</c:v>
+                  <c:v>0.294575296141626</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29287102605445497</c:v>
+                  <c:v>0.292871026054455</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.29061119719013401</c:v>
+                  <c:v>0.290611197190134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,7 +571,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 0</c15:sqref>
@@ -602,28 +611,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>222.50174517781201</c:v>
+                  <c:v>222.501745177812</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>343.115802173676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>494.44136001668102</c:v>
+                  <c:v>494.441360016681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>618.77997070076196</c:v>
+                  <c:v>618.779970700762</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>738.53463822428103</c:v>
+                  <c:v>738.534638224281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>882.24066729395997</c:v>
+                  <c:v>882.2406672939599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1069.8669789657099</c:v>
+                  <c:v>1069.86697896571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1240.9978803276899</c:v>
+                  <c:v>1240.99788032769</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1363.73126648375</c:v>
@@ -632,28 +641,28 @@
                   <c:v>1490.51534038305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1615.8484958306301</c:v>
+                  <c:v>1615.84849583063</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1741.4831731117799</c:v>
+                  <c:v>1741.48317311178</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1843.33714717723</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1962.3733862643001</c:v>
+                  <c:v>1962.3733862643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2083.4393507793202</c:v>
+                  <c:v>2083.43935077932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2174.8786130598201</c:v>
+                  <c:v>2174.87861305982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2405.9535316709898</c:v>
+                  <c:v>2405.95353167099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2546.5430909670799</c:v>
+                  <c:v>2546.54309096708</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2652.76441773236</c:v>
@@ -668,49 +677,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.44491614601419799</c:v>
+                  <c:v>0.444916146014198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39784514534917698</c:v>
+                  <c:v>0.397845145349177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35246807158362597</c:v>
+                  <c:v>0.352468071583626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33343261107319899</c:v>
+                  <c:v>0.333432611073199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31886060810290701</c:v>
+                  <c:v>0.318860608102907</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.305670946993151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28681392850784299</c:v>
+                  <c:v>0.286813928507843</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27249601065210299</c:v>
+                  <c:v>0.272496010652103</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.266163791785681</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26069840376999598</c:v>
+                  <c:v>0.260698403769996</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.254943062470121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25070701764748998</c:v>
+                  <c:v>0.25070701764749</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24780050049375499</c:v>
+                  <c:v>0.247800500493755</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.244761688462525</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.24237137640005099</c:v>
+                  <c:v>0.242371376400051</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.240184593157449</c:v>
@@ -719,10 +728,10 @@
                   <c:v>0.220916918771624</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21331762003951699</c:v>
+                  <c:v>0.213317620039517</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21114585884322801</c:v>
+                  <c:v>0.211145858843228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,7 +745,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 2</c15:sqref>
@@ -776,19 +785,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>314.79011052708103</c:v>
+                  <c:v>314.790110527081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>477.24166152963699</c:v>
+                  <c:v>477.2416615296371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.51939899865204</c:v>
+                  <c:v>617.519398998652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>831.68645255540696</c:v>
+                  <c:v>831.686452555407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1028.3478328618901</c:v>
+                  <c:v>1028.34783286189</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1211.71292243582</c:v>
@@ -800,37 +809,37 @@
                   <c:v>1412.64605376759</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1736.0727775068899</c:v>
+                  <c:v>1736.07277750689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1815.4006311962901</c:v>
+                  <c:v>1815.40063119629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2192.3662634397701</c:v>
+                  <c:v>2192.36626343977</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2094.8932644582301</c:v>
+                  <c:v>2094.89326445823</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2429.8100574418299</c:v>
+                  <c:v>2429.81005744183</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2615.5036317834101</c:v>
+                  <c:v>2615.50363178341</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2850.5944113399701</c:v>
+                  <c:v>2850.59441133997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2750.4209934706701</c:v>
+                  <c:v>2750.42099347067</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3397.87874635255</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3121.8103744671698</c:v>
+                  <c:v>3121.81037446717</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3746.0906242430901</c:v>
+                  <c:v>3746.09062424309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,22 +851,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.37503314257651499</c:v>
+                  <c:v>0.375033142576515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34218225409692998</c:v>
+                  <c:v>0.34218225409693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32024068645564802</c:v>
+                  <c:v>0.320240686455648</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31599357561500602</c:v>
+                  <c:v>0.315993575615006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25471109712029899</c:v>
+                  <c:v>0.254711097120299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25397648180240101</c:v>
+                  <c:v>0.253976481802401</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.246575382400015</c:v>
@@ -866,16 +875,16 @@
                   <c:v>0.23656066657246</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24829211543051499</c:v>
+                  <c:v>0.248292115430515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24780483727129499</c:v>
+                  <c:v>0.247804837271295</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.206815224765735</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20930791370023399</c:v>
+                  <c:v>0.209307913700234</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.191809125155323</c:v>
@@ -884,19 +893,19 @@
                   <c:v>0.178419703437489</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19031473725678999</c:v>
+                  <c:v>0.19031473725679</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20962063004763901</c:v>
+                  <c:v>0.209620630047639</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16546308738816001</c:v>
+                  <c:v>0.16546308738816</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.221019302921657</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15494456332331299</c:v>
+                  <c:v>0.154944563323313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,7 +919,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 4</c15:sqref>
@@ -937,11 +946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1633847680"/>
-        <c:axId val="-1633850400"/>
+        <c:axId val="-484203888"/>
+        <c:axId val="-498935904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1633847680"/>
+        <c:axId val="-484203888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +966,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Avg Block Size
@@ -966,6 +975,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -978,12 +988,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1633850400"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-498935904"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1633850400"/>
+        <c:axId val="-498935904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1018,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Ratio</a:t>
@@ -1016,6 +1026,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1028,8 +1039,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1633847680"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-484203888"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1043,6 +1054,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1088,7 +1100,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="1">
+              <a:rPr lang="en-US" sz="1300" b="1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Last year</a:t>
@@ -1096,6 +1108,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1146,13 +1159,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>49.947532522380598</c:v>
+                  <c:v>49.9475325223806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.1023834741233</c:v>
+                  <c:v>75.10238347412329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.26305644991599</c:v>
+                  <c:v>101.263056449916</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>122.990357168969</c:v>
@@ -1164,7 +1177,7 @@
                   <c:v>167.920995780217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>191.403822761566</c:v>
+                  <c:v>191.4038227615659</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>213.442977734934</c:v>
@@ -1173,88 +1186,88 @@
                   <c:v>237.451714560016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>260.223151897359</c:v>
+                  <c:v>260.2231518973589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>279.97706864119601</c:v>
+                  <c:v>279.977068641196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>301.08173963195799</c:v>
+                  <c:v>301.081739631958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>320.10476922467001</c:v>
+                  <c:v>320.10476922467</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>339.06332059948301</c:v>
+                  <c:v>339.063320599483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>356.20603415956901</c:v>
+                  <c:v>356.206034159569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>379.69918402325101</c:v>
+                  <c:v>379.699184023251</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.86785063939402</c:v>
+                  <c:v>400.867850639394</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>421.03520881865097</c:v>
+                  <c:v>421.0352088186509</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>439.970280332931</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>463.072318154193</c:v>
+                  <c:v>463.0723181541929</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>483.325211735577</c:v>
+                  <c:v>483.3252117355769</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>507.03461924535702</c:v>
+                  <c:v>507.034619245357</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>525.52543573107698</c:v>
+                  <c:v>525.525435731077</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>550.94718703102103</c:v>
+                  <c:v>550.9471870310209</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>567.74704977476404</c:v>
+                  <c:v>567.7470497747639</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>587.69351048881401</c:v>
+                  <c:v>587.693510488814</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>609.723925192244</c:v>
+                  <c:v>609.7239251922439</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>630.97707314059903</c:v>
+                  <c:v>630.977073140599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>648.38348960139501</c:v>
+                  <c:v>648.383489601395</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>668.99650699154097</c:v>
+                  <c:v>668.996506991541</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>695.08779053338799</c:v>
+                  <c:v>695.0877905333882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>719.85582097085603</c:v>
+                  <c:v>719.855820970856</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>745.183483568469</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>767.31821742305499</c:v>
+                  <c:v>767.3182174230549</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>793.20668059125899</c:v>
+                  <c:v>793.206680591259</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>814.96858124265805</c:v>
+                  <c:v>814.968581242658</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>832.76362061028601</c:v>
+                  <c:v>832.763620610286</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>850.92396461234</c:v>
@@ -1272,103 +1285,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.53338634152676601</c:v>
+                  <c:v>0.533386341526766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49064321892728902</c:v>
+                  <c:v>0.490643218927289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46242989231117798</c:v>
+                  <c:v>0.462429892311178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44015595626828702</c:v>
+                  <c:v>0.440155956268287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41806287405431097</c:v>
+                  <c:v>0.418062874054311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40440886613597299</c:v>
+                  <c:v>0.404408866135973</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.390569461381094</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37845677701012098</c:v>
+                  <c:v>0.378456777010121</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.368457536971458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35827475827275101</c:v>
+                  <c:v>0.358274758272751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35250889332150098</c:v>
+                  <c:v>0.352508893321501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34607143144645103</c:v>
+                  <c:v>0.346071431446451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34087209696471099</c:v>
+                  <c:v>0.340872096964711</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33587936104701199</c:v>
+                  <c:v>0.335879361047012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33147670370448801</c:v>
+                  <c:v>0.331476703704488</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.32076243370143598</c:v>
+                  <c:v>0.320762433701436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31691118528559897</c:v>
+                  <c:v>0.316911185285599</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.31238607628772502</c:v>
+                  <c:v>0.312386076287725</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.309063653362458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30465707018242799</c:v>
+                  <c:v>0.304657070182428</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30143478602442098</c:v>
+                  <c:v>0.301434786024421</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.298016903699792</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.29435534792540502</c:v>
+                  <c:v>0.294355347925405</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29090688994445102</c:v>
+                  <c:v>0.290906889944451</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.28854345624199002</c:v>
+                  <c:v>0.28854345624199</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28633976093784602</c:v>
+                  <c:v>0.286339760937846</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28443315720566698</c:v>
+                  <c:v>0.284433157205667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28253269432085998</c:v>
+                  <c:v>0.28253269432086</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28073967354025198</c:v>
+                  <c:v>0.280739673540252</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.27930218485902603</c:v>
+                  <c:v>0.279302184859026</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.27797772635395701</c:v>
+                  <c:v>0.277977726353957</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.27661117865868301</c:v>
+                  <c:v>0.276611178658683</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.27532599924965201</c:v>
+                  <c:v>0.275325999249652</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.273674840226583</c:v>
@@ -1380,10 +1393,10 @@
                   <c:v>0.268589918332033</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.26689610904754002</c:v>
+                  <c:v>0.26689610904754</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.26547229059407801</c:v>
+                  <c:v>0.265472290594078</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.263612793451109</c:v>
@@ -1400,7 +1413,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 0</c15:sqref>
@@ -1440,28 +1453,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>222.50174517781201</c:v>
+                  <c:v>222.501745177812</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>343.115802173676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>494.44136001668102</c:v>
+                  <c:v>494.441360016681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>618.77997070076196</c:v>
+                  <c:v>618.779970700762</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>738.53463822428103</c:v>
+                  <c:v>738.534638224281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>882.24066729395997</c:v>
+                  <c:v>882.2406672939599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1069.8669789657099</c:v>
+                  <c:v>1069.86697896571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1240.9978803276899</c:v>
+                  <c:v>1240.99788032769</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1363.73126648375</c:v>
@@ -1470,28 +1483,28 @@
                   <c:v>1490.51534038305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1615.8484958306301</c:v>
+                  <c:v>1615.84849583063</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1741.4831731117799</c:v>
+                  <c:v>1741.48317311178</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1843.33714717723</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1962.3733862643001</c:v>
+                  <c:v>1962.3733862643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2083.4393507793202</c:v>
+                  <c:v>2083.43935077932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2174.8786130598201</c:v>
+                  <c:v>2174.87861305982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2405.9535316709898</c:v>
+                  <c:v>2405.95353167099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2546.5430909670799</c:v>
+                  <c:v>2546.54309096708</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2652.76441773236</c:v>
@@ -1506,61 +1519,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.39120131605936398</c:v>
+                  <c:v>0.391201316059364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35329416470951402</c:v>
+                  <c:v>0.353294164709514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31466767511703098</c:v>
+                  <c:v>0.314667675117031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30040778463534101</c:v>
+                  <c:v>0.300407784635341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28673634352138999</c:v>
+                  <c:v>0.28673634352139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27594782344197499</c:v>
+                  <c:v>0.275947823441975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25986608137023098</c:v>
+                  <c:v>0.259866081370231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24747125445212301</c:v>
+                  <c:v>0.247471254452123</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.24241160454047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21872352324010999</c:v>
+                  <c:v>0.21872352324011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21408403216102401</c:v>
+                  <c:v>0.214084032161024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21113620532657201</c:v>
+                  <c:v>0.211136205326572</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20878552798094599</c:v>
+                  <c:v>0.208785527980946</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20654073761856401</c:v>
+                  <c:v>0.206540737618564</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20482597928193699</c:v>
+                  <c:v>0.204825979281937</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20308399826401899</c:v>
+                  <c:v>0.203083998264019</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18481898487560799</c:v>
+                  <c:v>0.184818984875608</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18071568006591299</c:v>
+                  <c:v>0.180715680065913</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.17925123302874801</c:v>
+                  <c:v>0.179251233028748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,7 +1587,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 2</c15:sqref>
@@ -1614,19 +1627,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>314.79011052708103</c:v>
+                  <c:v>314.790110527081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>477.24166152963699</c:v>
+                  <c:v>477.2416615296371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.51939899865204</c:v>
+                  <c:v>617.519398998652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>831.68645255540696</c:v>
+                  <c:v>831.686452555407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1028.3478328618901</c:v>
+                  <c:v>1028.34783286189</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1211.71292243582</c:v>
@@ -1638,37 +1651,37 @@
                   <c:v>1412.64605376759</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1736.0727775068899</c:v>
+                  <c:v>1736.07277750689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1815.4006311962901</c:v>
+                  <c:v>1815.40063119629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2192.3662634397701</c:v>
+                  <c:v>2192.36626343977</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2094.8932644582301</c:v>
+                  <c:v>2094.89326445823</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2429.8100574418299</c:v>
+                  <c:v>2429.81005744183</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2615.5036317834101</c:v>
+                  <c:v>2615.50363178341</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2850.5944113399701</c:v>
+                  <c:v>2850.59441133997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2750.4209934706701</c:v>
+                  <c:v>2750.42099347067</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3397.87874635255</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3121.8103744671698</c:v>
+                  <c:v>3121.81037446717</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3746.0906242430901</c:v>
+                  <c:v>3746.09062424309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,61 +1693,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.34456994818065201</c:v>
+                  <c:v>0.344569948180652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31085385855647002</c:v>
+                  <c:v>0.31085385855647</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.286767224488988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28573665540788401</c:v>
+                  <c:v>0.285736655407884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23381723783726499</c:v>
+                  <c:v>0.233817237837265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22756854521652101</c:v>
+                  <c:v>0.227568545216521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22375606367586101</c:v>
+                  <c:v>0.223756063675861</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.214780715093838</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22599626540515799</c:v>
+                  <c:v>0.225996265405158</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.228554731681435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18423930050699899</c:v>
+                  <c:v>0.184239300506999</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.189798302659866</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17431057355718199</c:v>
+                  <c:v>0.174310573557182</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16219917230060499</c:v>
+                  <c:v>0.162199172300605</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17517611890523799</c:v>
+                  <c:v>0.175176118905238</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.19345409591346699</c:v>
+                  <c:v>0.193454095913467</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15100253417544299</c:v>
+                  <c:v>0.151002534175443</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20543682599152599</c:v>
+                  <c:v>0.205436825991526</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14140803438823199</c:v>
+                  <c:v>0.141408034388232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,7 +1761,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 4</c15:sqref>
@@ -1775,11 +1788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1633847136"/>
-        <c:axId val="-1633849856"/>
+        <c:axId val="-592697520"/>
+        <c:axId val="-499110848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1633847136"/>
+        <c:axId val="-592697520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1808,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Avg Block Size</a:t>
@@ -1803,6 +1816,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1815,12 +1829,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1633849856"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-499110848"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1633849856"/>
+        <c:axId val="-499110848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1845,7 +1859,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Ratio</a:t>
@@ -1853,6 +1867,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1865,8 +1880,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1633847136"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-592697520"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1880,6 +1895,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1925,7 +1941,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="1">
+              <a:rPr lang="en-US" sz="1300" b="1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>2 years</a:t>
@@ -1933,6 +1949,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1983,13 +2000,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>49.947532522380598</c:v>
+                  <c:v>49.9475325223806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.1023834741233</c:v>
+                  <c:v>75.10238347412329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.26305644991599</c:v>
+                  <c:v>101.263056449916</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>122.990357168969</c:v>
@@ -2001,7 +2018,7 @@
                   <c:v>167.920995780217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>191.403822761566</c:v>
+                  <c:v>191.4038227615659</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>213.442977734934</c:v>
@@ -2010,88 +2027,88 @@
                   <c:v>237.451714560016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>260.223151897359</c:v>
+                  <c:v>260.2231518973589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>279.97706864119601</c:v>
+                  <c:v>279.977068641196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>301.08173963195799</c:v>
+                  <c:v>301.081739631958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>320.10476922467001</c:v>
+                  <c:v>320.10476922467</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>339.06332059948301</c:v>
+                  <c:v>339.063320599483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>356.20603415956901</c:v>
+                  <c:v>356.206034159569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>379.69918402325101</c:v>
+                  <c:v>379.699184023251</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.86785063939402</c:v>
+                  <c:v>400.867850639394</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>421.03520881865097</c:v>
+                  <c:v>421.0352088186509</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>439.970280332931</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>463.072318154193</c:v>
+                  <c:v>463.0723181541929</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>483.325211735577</c:v>
+                  <c:v>483.3252117355769</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>507.03461924535702</c:v>
+                  <c:v>507.034619245357</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>525.52543573107698</c:v>
+                  <c:v>525.525435731077</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>550.94718703102103</c:v>
+                  <c:v>550.9471870310209</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>567.74704977476404</c:v>
+                  <c:v>567.7470497747639</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>587.69351048881401</c:v>
+                  <c:v>587.693510488814</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>609.723925192244</c:v>
+                  <c:v>609.7239251922439</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>630.97707314059903</c:v>
+                  <c:v>630.977073140599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>648.38348960139501</c:v>
+                  <c:v>648.383489601395</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>668.99650699154097</c:v>
+                  <c:v>668.996506991541</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>695.08779053338799</c:v>
+                  <c:v>695.0877905333882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>719.85582097085603</c:v>
+                  <c:v>719.855820970856</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>745.183483568469</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>767.31821742305499</c:v>
+                  <c:v>767.3182174230549</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>793.20668059125899</c:v>
+                  <c:v>793.206680591259</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>814.96858124265805</c:v>
+                  <c:v>814.968581242658</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>832.76362061028601</c:v>
+                  <c:v>832.763620610286</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>850.92396461234</c:v>
@@ -2109,79 +2126,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.44454779295917701</c:v>
+                  <c:v>0.444547792959177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41135739748460498</c:v>
+                  <c:v>0.411357397484605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38976617262484098</c:v>
+                  <c:v>0.389766172624841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37312274210972601</c:v>
+                  <c:v>0.373122742109726</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35556071148926499</c:v>
+                  <c:v>0.355560711489265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34486640804841201</c:v>
+                  <c:v>0.344866408048412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33483059701065199</c:v>
+                  <c:v>0.334830597010652</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.325208816789615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31616823677528899</c:v>
+                  <c:v>0.316168236775289</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.308927547817748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30486786156453799</c:v>
+                  <c:v>0.304867861564538</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29954683662152298</c:v>
+                  <c:v>0.299546836621523</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.29497852329196</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.29132132411470002</c:v>
+                  <c:v>0.2913213241147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28785615037954898</c:v>
+                  <c:v>0.287856150379549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27881549165792802</c:v>
+                  <c:v>0.278815491657928</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27568235403089902</c:v>
+                  <c:v>0.275682354030899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27184889341976798</c:v>
+                  <c:v>0.271848893419768</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26918672372152602</c:v>
+                  <c:v>0.269186723721526</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26551123489356399</c:v>
+                  <c:v>0.265511234893564</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26292002427425798</c:v>
+                  <c:v>0.262920024274258</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26036082144306599</c:v>
+                  <c:v>0.260360821443066</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25842249138981799</c:v>
+                  <c:v>0.258422491389818</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25673629072930498</c:v>
+                  <c:v>0.256736290729305</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25511996070304199</c:v>
+                  <c:v>0.255119960703042</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.253388637417227</c:v>
@@ -2190,37 +2207,37 @@
                   <c:v>0.251753012982525</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.25038461725586802</c:v>
+                  <c:v>0.250384617255868</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.24929203008053699</c:v>
+                  <c:v>0.249292030080537</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.24829409477242201</c:v>
+                  <c:v>0.248294094772422</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.247161399883225</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.24608180295154899</c:v>
+                  <c:v>0.246081802951549</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.24525041472842399</c:v>
+                  <c:v>0.245250414728424</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.24390321975596799</c:v>
+                  <c:v>0.243903219755968</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.24129164398715999</c:v>
+                  <c:v>0.24129164398716</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.23959566926652401</c:v>
+                  <c:v>0.239595669266524</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.23818738163797501</c:v>
+                  <c:v>0.238187381637975</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.23704926101027299</c:v>
+                  <c:v>0.237049261010273</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.235441567329359</c:v>
@@ -2237,7 +2254,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 0</c15:sqref>
@@ -2277,28 +2294,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>222.50174517781201</c:v>
+                  <c:v>222.501745177812</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>343.115802173676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>494.44136001668102</c:v>
+                  <c:v>494.441360016681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>618.77997070076196</c:v>
+                  <c:v>618.779970700762</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>738.53463822428103</c:v>
+                  <c:v>738.534638224281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>882.24066729395997</c:v>
+                  <c:v>882.2406672939599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1069.8669789657099</c:v>
+                  <c:v>1069.86697896571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1240.9978803276899</c:v>
+                  <c:v>1240.99788032769</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1363.73126648375</c:v>
@@ -2307,28 +2324,28 @@
                   <c:v>1490.51534038305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1615.8484958306301</c:v>
+                  <c:v>1615.84849583063</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1741.4831731117799</c:v>
+                  <c:v>1741.48317311178</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1843.33714717723</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1962.3733862643001</c:v>
+                  <c:v>1962.3733862643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2083.4393507793202</c:v>
+                  <c:v>2083.43935077932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2174.8786130598201</c:v>
+                  <c:v>2174.87861305982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2405.9535316709898</c:v>
+                  <c:v>2405.95353167099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2546.5430909670799</c:v>
+                  <c:v>2546.54309096708</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2652.76441773236</c:v>
@@ -2343,7 +2360,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.33442032627318002</c:v>
+                  <c:v>0.33442032627318</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.305888820050981</c:v>
@@ -2352,16 +2369,16 @@
                   <c:v>0.273559108245579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26232322883588999</c:v>
+                  <c:v>0.26232322883589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25391504553642102</c:v>
+                  <c:v>0.253915045536421</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.246240178881522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23278514853014701</c:v>
+                  <c:v>0.232785148530147</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.222232531062029</c:v>
@@ -2373,31 +2390,31 @@
                   <c:v>0.21532719722821</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21186488147955199</c:v>
+                  <c:v>0.211864881479552</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.209634383044112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20819607387483099</c:v>
+                  <c:v>0.208196073874831</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20679608900778501</c:v>
+                  <c:v>0.206796089007785</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.205642202574707</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20448954909803599</c:v>
+                  <c:v>0.204489549098036</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.1865699797641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18022059310609501</c:v>
+                  <c:v>0.180220593106095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.17892333740914301</c:v>
+                  <c:v>0.178923337409143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,7 +2428,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 2</c15:sqref>
@@ -2451,19 +2468,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>314.79011052708103</c:v>
+                  <c:v>314.790110527081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>477.24166152963699</c:v>
+                  <c:v>477.2416615296371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.51939899865204</c:v>
+                  <c:v>617.519398998652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>831.68645255540696</c:v>
+                  <c:v>831.686452555407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1028.3478328618901</c:v>
+                  <c:v>1028.34783286189</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1211.71292243582</c:v>
@@ -2475,37 +2492,37 @@
                   <c:v>1412.64605376759</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1736.0727775068899</c:v>
+                  <c:v>1736.07277750689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1815.4006311962901</c:v>
+                  <c:v>1815.40063119629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2192.3662634397701</c:v>
+                  <c:v>2192.36626343977</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2094.8932644582301</c:v>
+                  <c:v>2094.89326445823</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2429.8100574418299</c:v>
+                  <c:v>2429.81005744183</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2615.5036317834101</c:v>
+                  <c:v>2615.50363178341</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2850.5944113399701</c:v>
+                  <c:v>2850.59441133997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2750.4209934706701</c:v>
+                  <c:v>2750.42099347067</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3397.87874635255</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3121.8103744671698</c:v>
+                  <c:v>3121.81037446717</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3746.0906242430901</c:v>
+                  <c:v>3746.09062424309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,19 +2534,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.29697354148006899</c:v>
+                  <c:v>0.296973541480069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27298110056361402</c:v>
+                  <c:v>0.272981100563614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25168967120685398</c:v>
+                  <c:v>0.251689671206854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24781236276297999</c:v>
+                  <c:v>0.24781236276298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20665180856384899</c:v>
+                  <c:v>0.206651808563849</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.202434866108755</c:v>
@@ -2544,25 +2561,25 @@
                   <c:v>0.204542878304773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20827832013031899</c:v>
+                  <c:v>0.208278320130319</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.166777842963138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17074901285410701</c:v>
+                  <c:v>0.170749012854107</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.158072646069881</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14707655826421101</c:v>
+                  <c:v>0.147076558264211</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.159456160164586</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17612801602029099</c:v>
+                  <c:v>0.176128016020291</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.137477385007442</c:v>
@@ -2571,7 +2588,7 @@
                   <c:v>0.19081593322824</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12808251966032899</c:v>
+                  <c:v>0.128082519660329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2585,7 +2602,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 4</c15:sqref>
@@ -2612,11 +2629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1633856928"/>
-        <c:axId val="-1633854752"/>
+        <c:axId val="-482155072"/>
+        <c:axId val="-483615888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1633856928"/>
+        <c:axId val="-482155072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,7 +2649,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Avg Block Size</a:t>
@@ -2640,6 +2657,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2652,12 +2670,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1633854752"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-483615888"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1633854752"/>
+        <c:axId val="-483615888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +2700,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Ratio</a:t>
@@ -2690,6 +2708,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2702,8 +2721,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1633856928"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-482155072"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2717,6 +2736,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2822,7 +2842,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.127009596538017"/>
+          <c:y val="0.123306273404523"/>
+          <c:w val="0.829571036448073"/>
+          <c:h val="0.741944165622265"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2842,126 +2872,256 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$P$3:$P$21</c:f>
+              <c:f>Sheet3!$P$3:$P$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>103.494720238677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161.99042980926899</c:v>
+                  <c:v>161.990429809269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>192.81021454406701</c:v>
+                  <c:v>192.810214544067</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>287.491706423398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>419.51282750684601</c:v>
+                  <c:v>419.512827506846</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>423.05515892444799</c:v>
+                  <c:v>423.055158924448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>418.26953388881401</c:v>
+                  <c:v>418.269533888814</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>614.08866137474297</c:v>
+                  <c:v>614.088661374743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>585.85411892289596</c:v>
+                  <c:v>585.854118922896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>696.62746561633799</c:v>
+                  <c:v>696.627465616338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>772.80614521757195</c:v>
+                  <c:v>772.806145217572</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>805.84585601165202</c:v>
+                  <c:v>805.845856011652</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>882.74087157047097</c:v>
+                  <c:v>882.740871570471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>892.10072215132504</c:v>
+                  <c:v>892.100722151325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>826.83821405003096</c:v>
+                  <c:v>826.838214050031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1044.6655814226399</c:v>
+                  <c:v>1044.66558142264</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1243.08363246114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1295.5196124532499</c:v>
+                  <c:v>1295.51961245325</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1148.4941064698201</c:v>
+                  <c:v>1148.49410646982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1413.27502713161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1570.28988716194</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1906.70425021594</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2183.1979854109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1712.85260259679</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2378.5508786135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1972.16224278365</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1873.57120948685</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1432.74867205411</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1796.90050040278</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2892.1139593599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1970.72264561305</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2309.89499678223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1773.82918058104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2710.60622711653</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2459.90498711867</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2614.84751698365</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2849.95209243393</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2948.30759102052</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3001.65539328422</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4493.21667277218</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2891.06542106697</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3372.60137963649</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3747.22817695674</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3523.9566430761</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4350.18719694497</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5345.98172735538</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4161.48430509388</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4033.05487317572</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3960.32643496041</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3797.46717546706</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7076.78808778056</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3005.83156453652</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4643.56848356645</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2582.39126092095</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5391.91880243548</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6045.78742532804</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3777.73117735136</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2922.77182431168</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3244.23841401393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$Q$3:$Q$21</c:f>
+              <c:f>Sheet3!$Q$3:$Q$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>0.52451167403698795</c:v>
+                  <c:v>0.524511674036988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45435365497145702</c:v>
+                  <c:v>0.454353654971457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43701714389299201</c:v>
+                  <c:v>0.437017143892992</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.397547480685012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37819899595527501</c:v>
+                  <c:v>0.378198995955275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35588007868969901</c:v>
+                  <c:v>0.355880078689699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33435188817672801</c:v>
+                  <c:v>0.334351888176728</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.293941391925161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35023175949553997</c:v>
+                  <c:v>0.35023175949554</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33894558289428001</c:v>
+                  <c:v>0.33894558289428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31302123700831203</c:v>
+                  <c:v>0.313021237008312</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.294676528668462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28082729951832802</c:v>
+                  <c:v>0.280827299518328</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.289484490580728</c:v>
@@ -2970,7 +3130,7 @@
                   <c:v>0.273491002240484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27059348822948198</c:v>
+                  <c:v>0.270593488229482</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.253402141670243</c:v>
@@ -2979,7 +3139,127 @@
                   <c:v>0.246100668521059</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27570689440798901</c:v>
+                  <c:v>0.275706894407989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.253992779257022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.263186558570834</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.210665512993345</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.213189646220695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.207616991915441</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.206910555001253</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.231479218218674</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.245540811544268</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.238105374874221</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.220202256117724</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.171010628677577</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.209555855750036</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.185494576729286</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.239622276448737</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.197902041663019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.213621062081538</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.182279335174865</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.190130371597694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.198647347058459</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.177839798111459</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.125348135662401</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.217022528165805</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.168439462215983</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.108062912106731</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1773519469031</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.168591847111738</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.157366046328724</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.190364053717435</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.225857902183027</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14658814969643</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.160541469436588</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.038853057538356</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.198873979794794</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.164150253350722</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.203645426055158</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.114695132741548</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.126798076528449</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.138015665415376</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.193064335364766</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.179399350547158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3024,10 +3304,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>49.907119959990197</c:v>
+                  <c:v>49.9071199599902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.542002355266504</c:v>
+                  <c:v>75.5420023552665</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100.672103099381</c:v>
@@ -3036,7 +3316,7 @@
                   <c:v>126.115031169105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.04927766462799</c:v>
+                  <c:v>149.049277664628</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>174.515360908003</c:v>
@@ -3045,7 +3325,7 @@
                   <c:v>200.569115070566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>223.15165154709399</c:v>
+                  <c:v>223.151651547094</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>243.914000960094</c:v>
@@ -3057,28 +3337,28 @@
                   <c:v>287.138747427422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>309.32267220212998</c:v>
+                  <c:v>309.32267220213</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>334.073179313747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>359.05123442368898</c:v>
+                  <c:v>359.051234423689</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>377.17996071737701</c:v>
+                  <c:v>377.179960717377</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>397.805778531952</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>419.31456940928501</c:v>
+                  <c:v>419.314569409285</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>437.340402714535</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>465.45754396427202</c:v>
+                  <c:v>465.457543964272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,61 +3370,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.62553430596728099</c:v>
+                  <c:v>0.625534305967281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57142217737852696</c:v>
+                  <c:v>0.571422177378527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53506334871227501</c:v>
+                  <c:v>0.535063348712275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50229156853046297</c:v>
+                  <c:v>0.502291568530463</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.480411445186254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46227014202702399</c:v>
+                  <c:v>0.462270142027024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44321436659951702</c:v>
+                  <c:v>0.443214366599517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43056203206294102</c:v>
+                  <c:v>0.430562032062941</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41557141482869597</c:v>
+                  <c:v>0.415571414828696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40706172333325202</c:v>
+                  <c:v>0.407061723333252</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39898809578854599</c:v>
+                  <c:v>0.398988095788546</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.391416023828079</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38461505640586602</c:v>
+                  <c:v>0.384615056405866</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.37808153102320602</c:v>
+                  <c:v>0.378081531023206</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.371570779401318</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36699094882077299</c:v>
+                  <c:v>0.366990948820773</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35726806810655698</c:v>
+                  <c:v>0.357268068106557</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35277919011090297</c:v>
+                  <c:v>0.352779190110903</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.34866184801269301</c:v>
+                  <c:v>0.348661848012693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,61 +3469,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>305.76992897169703</c:v>
+                  <c:v>305.769928971697</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>466.931199458631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600.58124261165403</c:v>
+                  <c:v>600.581242611654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>814.75806391975198</c:v>
+                  <c:v>814.758063919752</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1052.03854317287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1124.9928495030599</c:v>
+                  <c:v>1124.99284950306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1206.6386367121299</c:v>
+                  <c:v>1206.63863671213</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1557.05233674074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1651.4107687396399</c:v>
+                  <c:v>1651.41076873964</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1830.78323536227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2067.4287249142699</c:v>
+                  <c:v>2067.42872491427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2175.4121530884399</c:v>
+                  <c:v>2175.41215308844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2308.7103574408602</c:v>
+                  <c:v>2308.71035744086</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2408.5039558885701</c:v>
+                  <c:v>2408.50395588857</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2591.11926901876</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2907.3261344327302</c:v>
+                  <c:v>2907.32613443273</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3213.1566292911898</c:v>
+                  <c:v>3213.15662929119</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3226.15301186036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3248.8449083842502</c:v>
+                  <c:v>3248.84490838425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,31 +3535,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.40555927226219202</c:v>
+                  <c:v>0.405559272262192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36358180464918499</c:v>
+                  <c:v>0.363581804649185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34059546881296299</c:v>
+                  <c:v>0.340595468812963</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30525516063554597</c:v>
+                  <c:v>0.305255160635546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28639594786487099</c:v>
+                  <c:v>0.286395947864871</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28447373333849901</c:v>
+                  <c:v>0.284473733338499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26786738666629201</c:v>
+                  <c:v>0.267867386666292</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.236738559928588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25165105538514199</c:v>
+                  <c:v>0.251651055385142</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.248144509204521</c:v>
@@ -3300,16 +3580,16 @@
                   <c:v>0.198427923038837</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.19455362717263999</c:v>
+                  <c:v>0.19455362717264</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18266068963283499</c:v>
+                  <c:v>0.182660689632835</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18518507774419801</c:v>
+                  <c:v>0.185185077744198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20303056519931101</c:v>
+                  <c:v>0.203030565199311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3357,58 +3637,58 @@
                   <c:v>205.21974773749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>330.78929105140497</c:v>
+                  <c:v>330.789291051405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470.75242416536099</c:v>
+                  <c:v>470.752424165361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>591.66749527878801</c:v>
+                  <c:v>591.667495278788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>720.69876158268301</c:v>
+                  <c:v>720.698761582683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>867.50131664340199</c:v>
+                  <c:v>867.501316643402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>986.24521085053198</c:v>
+                  <c:v>986.245210850532</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1101.6126132178299</c:v>
+                  <c:v>1101.61261321783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1231.0022837461499</c:v>
+                  <c:v>1231.00228374615</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1377.96897608874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1506.0325230784199</c:v>
+                  <c:v>1506.03252307842</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1741.4363117371799</c:v>
+                  <c:v>1741.43631173718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1970.9711773101401</c:v>
+                  <c:v>1970.97117731014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2067.5874602850099</c:v>
+                  <c:v>2067.58746028501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2203.7529355384199</c:v>
+                  <c:v>2203.75293553842</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2300.5486618445002</c:v>
+                  <c:v>2300.5486618445</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2392.0635139576798</c:v>
+                  <c:v>2392.06351395768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2479.7550213448899</c:v>
+                  <c:v>2479.75502134489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2672.8074017398699</c:v>
+                  <c:v>2672.80740173987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,49 +3700,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.45737978713310501</c:v>
+                  <c:v>0.457379787133105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39938765109519297</c:v>
+                  <c:v>0.399387651095193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35843559237852701</c:v>
+                  <c:v>0.358435592378527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33442398316701399</c:v>
+                  <c:v>0.334423983167014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32058018395654497</c:v>
+                  <c:v>0.320580183956545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30692599325855302</c:v>
+                  <c:v>0.306925993258553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29672744586699701</c:v>
+                  <c:v>0.296727445866997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28221836050987598</c:v>
+                  <c:v>0.282218360509876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26254272973037002</c:v>
+                  <c:v>0.26254272973037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25004898061716102</c:v>
+                  <c:v>0.250048980617161</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24498683321835399</c:v>
+                  <c:v>0.244986833218354</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.23859693496248</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21097890273153899</c:v>
+                  <c:v>0.210978902731539</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20698583193609599</c:v>
+                  <c:v>0.206985831936096</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20329112689569401</c:v>
+                  <c:v>0.203291126895694</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.200311076462065</c:v>
@@ -3471,10 +3751,10 @@
                   <c:v>0.197103814472569</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.19458005359641101</c:v>
+                  <c:v>0.194580053596411</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19211868527911199</c:v>
+                  <c:v>0.192118685279112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,14 +3774,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1633850944"/>
-        <c:axId val="-1633853664"/>
+        <c:axId val="-483372704"/>
+        <c:axId val="-481112112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1633850944"/>
+        <c:axId val="-483372704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
+          <c:max val="5000.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3612,12 +3893,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1633853664"/>
+        <c:crossAx val="-481112112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1633853664"/>
+        <c:axId val="-481112112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3730,7 +4011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1633850944"/>
+        <c:crossAx val="-483372704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3915,7 +4196,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$P$47:$P$65</c:f>
+              <c:f>Sheet3!$P$72:$P$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3923,79 +4204,79 @@
                   <c:v>103.494720238677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161.99042980926899</c:v>
+                  <c:v>161.990429809269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>192.81021454406701</c:v>
+                  <c:v>192.810214544067</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>287.491706423398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>419.51282750684601</c:v>
+                  <c:v>419.512827506846</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>423.05515892444799</c:v>
+                  <c:v>423.055158924448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>418.26953388881401</c:v>
+                  <c:v>418.269533888814</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>614.08866137474297</c:v>
+                  <c:v>614.088661374743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>585.85411892289596</c:v>
+                  <c:v>585.854118922896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>696.62746561633799</c:v>
+                  <c:v>696.627465616338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>772.80614521757195</c:v>
+                  <c:v>772.806145217572</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>805.84585601165202</c:v>
+                  <c:v>805.845856011652</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>882.74087157047097</c:v>
+                  <c:v>882.740871570471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>892.10072215132504</c:v>
+                  <c:v>892.100722151325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>826.83821405003096</c:v>
+                  <c:v>826.838214050031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1044.6655814226399</c:v>
+                  <c:v>1044.66558142264</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1243.08363246114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1295.5196124532499</c:v>
+                  <c:v>1295.51961245325</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1148.4941064698201</c:v>
+                  <c:v>1148.49410646982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$Q$47:$Q$65</c:f>
+              <c:f>Sheet3!$Q$72:$Q$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.46652390657426301</c:v>
+                  <c:v>0.466523906574263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40539518064111402</c:v>
+                  <c:v>0.405395180641114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39087326557614499</c:v>
+                  <c:v>0.390873265576145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35703587012185301</c:v>
+                  <c:v>0.357035870121853</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.339427030023287</c:v>
@@ -4004,43 +4285,43 @@
                   <c:v>0.319778068286873</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30156882470964302</c:v>
+                  <c:v>0.301568824709643</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26374365764875801</c:v>
+                  <c:v>0.263743657648758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31847988185544701</c:v>
+                  <c:v>0.318479881855447</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30906319892864298</c:v>
+                  <c:v>0.309063198928643</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28580326386727001</c:v>
+                  <c:v>0.28580326386727</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.267808972636776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25464281116441201</c:v>
+                  <c:v>0.254642811164412</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26602524279560003</c:v>
+                  <c:v>0.2660252427956</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.24885273190770399</c:v>
+                  <c:v>0.248852731907704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24233957443604501</c:v>
+                  <c:v>0.242339574436045</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23151840437850699</c:v>
+                  <c:v>0.231518404378507</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.223507094634429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25357628067655402</c:v>
+                  <c:v>0.253576280676554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4080,15 +4361,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$F$47:$F$65</c:f>
+              <c:f>Sheet3!$F$72:$F$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>49.907119959990197</c:v>
+                  <c:v>49.9071199599902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.542002355266504</c:v>
+                  <c:v>75.5420023552665</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100.672103099381</c:v>
@@ -4097,7 +4378,7 @@
                   <c:v>126.115031169105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.04927766462799</c:v>
+                  <c:v>149.049277664628</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>174.515360908003</c:v>
@@ -4106,7 +4387,7 @@
                   <c:v>200.569115070566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>223.15165154709399</c:v>
+                  <c:v>223.151651547094</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>243.914000960094</c:v>
@@ -4118,94 +4399,94 @@
                   <c:v>287.138747427422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>309.32267220212998</c:v>
+                  <c:v>309.32267220213</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>334.073179313747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>359.05123442368898</c:v>
+                  <c:v>359.051234423689</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>377.17996071737701</c:v>
+                  <c:v>377.179960717377</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>397.805778531952</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>419.31456940928501</c:v>
+                  <c:v>419.314569409285</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>437.340402714535</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>465.45754396427202</c:v>
+                  <c:v>465.457543964272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$G$47:$G$65</c:f>
+              <c:f>Sheet3!$G$72:$G$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.54818038892080201</c:v>
+                  <c:v>0.548180388920802</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.500259482554408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46923543998371797</c:v>
+                  <c:v>0.469235439983718</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.440053443212718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42155652859408299</c:v>
+                  <c:v>0.421556528594083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40583176865055098</c:v>
+                  <c:v>0.405831768650551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38923645406561203</c:v>
+                  <c:v>0.389236454065612</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37859843805688498</c:v>
+                  <c:v>0.378598438056885</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.36514604364309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35829470332059599</c:v>
+                  <c:v>0.358294703320596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35169193280716099</c:v>
+                  <c:v>0.351691932807161</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34547646444426799</c:v>
+                  <c:v>0.345476464444268</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34041007221844699</c:v>
+                  <c:v>0.340410072218447</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33414309699067102</c:v>
+                  <c:v>0.334143096990671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.32875057969400401</c:v>
+                  <c:v>0.328750579694004</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.32504828412483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31707274920884099</c:v>
+                  <c:v>0.317072749208841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.31326994389505303</c:v>
+                  <c:v>0.313269943895053</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.31007717499021897</c:v>
+                  <c:v>0.310077174990219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4245,102 +4526,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$L$47:$L$65</c:f>
+              <c:f>Sheet3!$L$72:$L$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>305.76992897169703</c:v>
+                  <c:v>305.769928971697</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>466.931199458631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600.58124261165403</c:v>
+                  <c:v>600.581242611654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>814.75806391975198</c:v>
+                  <c:v>814.758063919752</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1052.03854317287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1124.9928495030599</c:v>
+                  <c:v>1124.99284950306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1206.6386367121299</c:v>
+                  <c:v>1206.63863671213</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1557.05233674074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1651.4107687396399</c:v>
+                  <c:v>1651.41076873964</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1830.78323536227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2067.4287249142699</c:v>
+                  <c:v>2067.42872491427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2175.4121530884399</c:v>
+                  <c:v>2175.41215308844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2308.7103574408602</c:v>
+                  <c:v>2308.71035744086</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2408.5039558885701</c:v>
+                  <c:v>2408.50395588857</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2591.11926901876</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2907.3261344327302</c:v>
+                  <c:v>2907.32613443273</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3213.1566292911898</c:v>
+                  <c:v>3213.15662929119</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3226.15301186036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3248.8449083842502</c:v>
+                  <c:v>3248.84490838425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$M$47:$M$65</c:f>
+              <c:f>Sheet3!$M$72:$M$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.35904184234256697</c:v>
+                  <c:v>0.359041842342567</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.324942017647884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30638902688460501</c:v>
+                  <c:v>0.306389026884605</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.274635531596993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25757712537177102</c:v>
+                  <c:v>0.257577125371771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26095733440710001</c:v>
+                  <c:v>0.2609573344071</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.241023011482487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21369142961197901</c:v>
+                  <c:v>0.213691429611979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22925431360224499</c:v>
+                  <c:v>0.229254313602245</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.228086011158845</c:v>
@@ -4349,10 +4630,10 @@
                   <c:v>0.22392793139993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20583477949478499</c:v>
+                  <c:v>0.205834779494785</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21515670093137701</c:v>
+                  <c:v>0.215156700931377</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.210131253750348</c:v>
@@ -4361,7 +4642,7 @@
                   <c:v>0.182102502906862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17506721341568701</c:v>
+                  <c:v>0.175067213415687</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.167587704432063</c:v>
@@ -4370,7 +4651,7 @@
                   <c:v>0.170435222217489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18968626451881901</c:v>
+                  <c:v>0.189686264518819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4410,7 +4691,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$47:$B$65</c:f>
+              <c:f>Sheet3!$B$72:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4418,109 +4699,109 @@
                   <c:v>205.21974773749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>330.78929105140497</c:v>
+                  <c:v>330.789291051405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470.75242416536099</c:v>
+                  <c:v>470.752424165361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>591.66749527878801</c:v>
+                  <c:v>591.667495278788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>720.69876158268301</c:v>
+                  <c:v>720.698761582683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>867.50131664340199</c:v>
+                  <c:v>867.501316643402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>986.24521085053198</c:v>
+                  <c:v>986.245210850532</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1101.6126132178299</c:v>
+                  <c:v>1101.61261321783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1231.0022837461499</c:v>
+                  <c:v>1231.00228374615</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1377.96897608874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1506.0325230784199</c:v>
+                  <c:v>1506.03252307842</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1741.4363117371799</c:v>
+                  <c:v>1741.43631173718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1970.9711773101401</c:v>
+                  <c:v>1970.97117731014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2067.5874602850099</c:v>
+                  <c:v>2067.58746028501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2203.7529355384199</c:v>
+                  <c:v>2203.75293553842</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2300.5486618445002</c:v>
+                  <c:v>2300.5486618445</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2392.0635139576798</c:v>
+                  <c:v>2392.06351395768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2479.7550213448899</c:v>
+                  <c:v>2479.75502134489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2672.8074017398699</c:v>
+                  <c:v>2672.80740173987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$47:$C$65</c:f>
+              <c:f>Sheet3!$C$72:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.39402964405294899</c:v>
+                  <c:v>0.394029644052949</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.342724988366505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30765664999490899</c:v>
+                  <c:v>0.307656649994909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28878822524386899</c:v>
+                  <c:v>0.288788225243869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27754091147918297</c:v>
+                  <c:v>0.277540911479183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26021196363398902</c:v>
+                  <c:v>0.260211963633989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25201642289291798</c:v>
+                  <c:v>0.252016422892918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23886207250180799</c:v>
+                  <c:v>0.238862072501808</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.220935025290173</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21061558469149799</c:v>
+                  <c:v>0.210615584691498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20712159695702301</c:v>
+                  <c:v>0.207121596957023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20257359927910501</c:v>
+                  <c:v>0.202573599279105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17626532668565001</c:v>
+                  <c:v>0.17626532668565</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.17365065396707899</c:v>
+                  <c:v>0.173650653967079</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.171145531207549</c:v>
@@ -4529,13 +4810,13 @@
                   <c:v>0.169611458327106</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16798392073358701</c:v>
+                  <c:v>0.167983920733587</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16675147950984501</c:v>
+                  <c:v>0.166751479509845</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16538700530147801</c:v>
+                  <c:v>0.165387005301478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4555,14 +4836,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1633845504"/>
-        <c:axId val="-1633852576"/>
+        <c:axId val="-563078032"/>
+        <c:axId val="-568262256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1633845504"/>
+        <c:axId val="-563078032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
+          <c:max val="2000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4673,12 +4954,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1633852576"/>
+        <c:crossAx val="-568262256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1633852576"/>
+        <c:axId val="-568262256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,7 +5072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1633845504"/>
+        <c:crossAx val="-563078032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4976,7 +5257,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$P$89:$P$107</c:f>
+              <c:f>Sheet3!$P$137:$P$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4984,65 +5265,65 @@
                   <c:v>103.494720238677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161.99042980926899</c:v>
+                  <c:v>161.990429809269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>192.81021454406701</c:v>
+                  <c:v>192.810214544067</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>287.491706423398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>419.51282750684601</c:v>
+                  <c:v>419.512827506846</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>423.05515892444799</c:v>
+                  <c:v>423.055158924448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>418.26953388881401</c:v>
+                  <c:v>418.269533888814</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>614.08866137474297</c:v>
+                  <c:v>614.088661374743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>585.85411892289596</c:v>
+                  <c:v>585.854118922896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>696.62746561633799</c:v>
+                  <c:v>696.627465616338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>772.80614521757195</c:v>
+                  <c:v>772.806145217572</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>805.84585601165202</c:v>
+                  <c:v>805.845856011652</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>882.74087157047097</c:v>
+                  <c:v>882.740871570471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>892.10072215132504</c:v>
+                  <c:v>892.100722151325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>826.83821405003096</c:v>
+                  <c:v>826.838214050031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1044.6655814226399</c:v>
+                  <c:v>1044.66558142264</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1243.08363246114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1295.5196124532499</c:v>
+                  <c:v>1295.51961245325</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1148.4941064698201</c:v>
+                  <c:v>1148.49410646982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$Q$89:$Q$107</c:f>
+              <c:f>Sheet3!$Q$137:$Q$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5053,43 +5334,43 @@
                   <c:v>0.348064866937491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33901922530079898</c:v>
+                  <c:v>0.339019225300799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31128389019244102</c:v>
+                  <c:v>0.311283890192441</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.296849540946787</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28089779962402101</c:v>
+                  <c:v>0.280897799624021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26684555890962403</c:v>
+                  <c:v>0.266845558909624</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.232613537755233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28364695938988999</c:v>
+                  <c:v>0.28364695938989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27569952776158102</c:v>
+                  <c:v>0.275699527761581</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25602769394571501</c:v>
+                  <c:v>0.256027693945715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23904525807876001</c:v>
+                  <c:v>0.23904525807876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22763225697197101</c:v>
+                  <c:v>0.227632256971971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23929314272031499</c:v>
+                  <c:v>0.239293142720315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22300149949272499</c:v>
+                  <c:v>0.223001499492725</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.219049532859484</c:v>
@@ -5098,10 +5379,10 @@
                   <c:v>0.209437268181243</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20011711079724001</c:v>
+                  <c:v>0.20011711079724</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22819589669889201</c:v>
+                  <c:v>0.228195896698892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5141,15 +5422,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$F$89:$F$107</c:f>
+              <c:f>Sheet3!$F$137:$F$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>49.907119959990197</c:v>
+                  <c:v>49.9071199599902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.542002355266504</c:v>
+                  <c:v>75.5420023552665</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100.672103099381</c:v>
@@ -5158,7 +5439,7 @@
                   <c:v>126.115031169105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.04927766462799</c:v>
+                  <c:v>149.049277664628</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>174.515360908003</c:v>
@@ -5167,7 +5448,7 @@
                   <c:v>200.569115070566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>223.15165154709399</c:v>
+                  <c:v>223.151651547094</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>243.914000960094</c:v>
@@ -5179,88 +5460,88 @@
                   <c:v>287.138747427422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>309.32267220212998</c:v>
+                  <c:v>309.32267220213</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>334.073179313747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>359.05123442368898</c:v>
+                  <c:v>359.051234423689</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>377.17996071737701</c:v>
+                  <c:v>377.179960717377</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>397.805778531952</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>419.31456940928501</c:v>
+                  <c:v>419.314569409285</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>437.340402714535</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>465.45754396427202</c:v>
+                  <c:v>465.457543964272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$G$89:$G$107</c:f>
+              <c:f>Sheet3!$G$137:$G$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.45575730845538798</c:v>
+                  <c:v>0.455757308455388</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.418145348662324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39490443534090403</c:v>
+                  <c:v>0.394904435340904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37134363462314202</c:v>
+                  <c:v>0.371343634623142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35730270726122598</c:v>
+                  <c:v>0.357302707261226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34524887423450001</c:v>
+                  <c:v>0.3452488742345</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.331296922535604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32310868407246002</c:v>
+                  <c:v>0.32310868407246</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31226770477374399</c:v>
+                  <c:v>0.312267704773744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30730339368382598</c:v>
+                  <c:v>0.307303393683826</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.302507281586951</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29808156215125098</c:v>
+                  <c:v>0.298081562151251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29468989895215097</c:v>
+                  <c:v>0.294689898952151</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28944900636381299</c:v>
+                  <c:v>0.289449006363813</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28567092322673698</c:v>
+                  <c:v>0.285670923226737</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28304581532511702</c:v>
+                  <c:v>0.283045815325117</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27629971942485698</c:v>
+                  <c:v>0.276299719424857</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.273567553929284</c:v>
@@ -5306,123 +5587,123 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$L$89:$L$107</c:f>
+              <c:f>Sheet3!$L$137:$L$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>305.76992897169703</c:v>
+                  <c:v>305.769928971697</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>466.931199458631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600.58124261165403</c:v>
+                  <c:v>600.581242611654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>814.75806391975198</c:v>
+                  <c:v>814.758063919752</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1052.03854317287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1124.9928495030599</c:v>
+                  <c:v>1124.99284950306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1206.6386367121299</c:v>
+                  <c:v>1206.63863671213</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1557.05233674074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1651.4107687396399</c:v>
+                  <c:v>1651.41076873964</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1830.78323536227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2067.4287249142699</c:v>
+                  <c:v>2067.42872491427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2175.4121530884399</c:v>
+                  <c:v>2175.41215308844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2308.7103574408602</c:v>
+                  <c:v>2308.71035744086</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2408.5039558885701</c:v>
+                  <c:v>2408.50395588857</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2591.11926901876</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2907.3261344327302</c:v>
+                  <c:v>2907.32613443273</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3213.1566292911898</c:v>
+                  <c:v>3213.15662929119</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3226.15301186036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3248.8449083842502</c:v>
+                  <c:v>3248.84490838425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$M$89:$M$107</c:f>
+              <c:f>Sheet3!$M$137:$M$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.31265311987799299</c:v>
+                  <c:v>0.312653119877993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28302114215056001</c:v>
+                  <c:v>0.28302114215056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27187142085219201</c:v>
+                  <c:v>0.271871420852192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24581766353684101</c:v>
+                  <c:v>0.245817663536841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22994468357373801</c:v>
+                  <c:v>0.229944683573738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23666217529508099</c:v>
+                  <c:v>0.236662175295081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21442562899811801</c:v>
+                  <c:v>0.214425628998118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19198547081516201</c:v>
+                  <c:v>0.191985470815162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20563480166567899</c:v>
+                  <c:v>0.205634801665679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20765153461924901</c:v>
+                  <c:v>0.207651534619249</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20219984790363299</c:v>
+                  <c:v>0.202199847903633</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.186258267611667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19790817315682699</c:v>
+                  <c:v>0.197908173156827</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19306373224239901</c:v>
+                  <c:v>0.193063732242399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16606116881278399</c:v>
+                  <c:v>0.166061168812784</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15995155305387301</c:v>
+                  <c:v>0.159951553053873</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.15309210052881</c:v>
@@ -5471,7 +5752,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$89:$B$107</c:f>
+              <c:f>Sheet3!$B$137:$B$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5479,91 +5760,91 @@
                   <c:v>205.21974773749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>330.78929105140497</c:v>
+                  <c:v>330.789291051405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470.75242416536099</c:v>
+                  <c:v>470.752424165361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>591.66749527878801</c:v>
+                  <c:v>591.667495278788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>720.69876158268301</c:v>
+                  <c:v>720.698761582683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>867.50131664340199</c:v>
+                  <c:v>867.501316643402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>986.24521085053198</c:v>
+                  <c:v>986.245210850532</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1101.6126132178299</c:v>
+                  <c:v>1101.61261321783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1231.0022837461499</c:v>
+                  <c:v>1231.00228374615</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1377.96897608874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1506.0325230784199</c:v>
+                  <c:v>1506.03252307842</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1741.4363117371799</c:v>
+                  <c:v>1741.43631173718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1970.9711773101401</c:v>
+                  <c:v>1970.97117731014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2067.5874602850099</c:v>
+                  <c:v>2067.58746028501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2203.7529355384199</c:v>
+                  <c:v>2203.75293553842</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2300.5486618445002</c:v>
+                  <c:v>2300.5486618445</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2392.0635139576798</c:v>
+                  <c:v>2392.06351395768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2479.7550213448899</c:v>
+                  <c:v>2479.75502134489</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2672.8074017398699</c:v>
+                  <c:v>2672.80740173987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$89:$C$107</c:f>
+              <c:f>Sheet3!$C$137:$C$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.33583037633511398</c:v>
+                  <c:v>0.335830376335114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29585578410149199</c:v>
+                  <c:v>0.295855784101492</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26783454448878302</c:v>
+                  <c:v>0.267834544488783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25303335218505701</c:v>
+                  <c:v>0.253033352185057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24502572872296199</c:v>
+                  <c:v>0.245025728722962</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.230319817240106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22425951968487901</c:v>
+                  <c:v>0.224259519684879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21325558356361399</c:v>
+                  <c:v>0.213255583563614</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.196899186813527</c:v>
@@ -5572,10 +5853,10 @@
                   <c:v>0.187952038102629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18561750822472001</c:v>
+                  <c:v>0.18561750822472</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18185060115906401</c:v>
+                  <c:v>0.181850601159064</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.156535067669135</c:v>
@@ -5584,10 +5865,10 @@
                   <c:v>0.154971832194231</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15310445753218299</c:v>
+                  <c:v>0.153104457532183</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15208546278607399</c:v>
+                  <c:v>0.152085462786074</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.150921053082647</c:v>
@@ -5596,7 +5877,7 @@
                   <c:v>0.150114168366103</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14925446344853599</c:v>
+                  <c:v>0.149254463448536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5616,14 +5897,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1633844416"/>
-        <c:axId val="-1633843328"/>
+        <c:axId val="-496255600"/>
+        <c:axId val="-548831424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1633844416"/>
+        <c:axId val="-496255600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
+          <c:max val="2000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5734,12 +6015,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1633843328"/>
+        <c:crossAx val="-548831424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1633843328"/>
+        <c:axId val="-548831424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5852,7 +6133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1633844416"/>
+        <c:crossAx val="-496255600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7700,16 +7981,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>174812</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>364564</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>49306</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>660399</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7732,13 +8013,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7761,15 +8042,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:colOff>122517</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>122518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>525929</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8092,24 +8373,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="O1" activeCellId="1" sqref="E100:G100 O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="13"/>
-    <col min="2" max="4" width="10.625"/>
-    <col min="5" max="5" width="13"/>
-    <col min="6" max="8" width="10.625"/>
-    <col min="9" max="11" width="9.125"/>
-    <col min="12" max="12" width="10.625"/>
-    <col min="13" max="13" width="13"/>
-    <col min="14" max="15" width="10.625"/>
-    <col min="16" max="1025" width="8.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8138,7 +8408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -8176,7 +8446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>100</v>
       </c>
@@ -8214,7 +8484,7 @@
         <v>0.48572514015416202</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>150</v>
       </c>
@@ -8252,7 +8522,7 @@
         <v>0.43850074087462898</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200</v>
       </c>
@@ -8290,7 +8560,7 @@
         <v>0.39783828260835302</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>250</v>
       </c>
@@ -8328,7 +8598,7 @@
         <v>0.38792573068870401</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>300</v>
       </c>
@@ -8366,7 +8636,7 @@
         <v>0.33812473213597299</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>350</v>
       </c>
@@ -8404,7 +8674,7 @@
         <v>0.31140809992231799</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>400</v>
       </c>
@@ -8442,7 +8712,7 @@
         <v>0.31049720186212598</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>450</v>
       </c>
@@ -8480,7 +8750,7 @@
         <v>0.322220411580731</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>500</v>
       </c>
@@ -8518,7 +8788,7 @@
         <v>0.315910272464974</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>550</v>
       </c>
@@ -8556,7 +8826,7 @@
         <v>0.30203710999077099</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>600</v>
       </c>
@@ -8594,7 +8864,7 @@
         <v>0.26460368176687299</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>650</v>
       </c>
@@ -8632,7 +8902,7 @@
         <v>0.288340596944481</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>700</v>
       </c>
@@ -8670,7 +8940,7 @@
         <v>0.239978561781693</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>750</v>
       </c>
@@ -8708,7 +8978,7 @@
         <v>0.25695678223566598</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>800</v>
       </c>
@@ -8746,7 +9016,7 @@
         <v>0.25357374209392303</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>850</v>
       </c>
@@ -8784,7 +9054,7 @@
         <v>0.29062930728411202</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>900</v>
       </c>
@@ -8822,7 +9092,7 @@
         <v>0.214839781565726</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>950</v>
       </c>
@@ -8860,7 +9130,7 @@
         <v>0.278300530445386</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -8898,7 +9168,7 @@
         <v>0.209992068423969</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E22">
         <v>1050</v>
       </c>
@@ -8909,7 +9179,7 @@
         <v>0.34167985695661202</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E23">
         <v>1100</v>
       </c>
@@ -8920,7 +9190,7 @@
         <v>0.33792418856284401</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E24">
         <v>1150</v>
       </c>
@@ -8931,7 +9201,7 @@
         <v>0.333837965959628</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E25">
         <v>1200</v>
       </c>
@@ -8942,7 +9212,7 @@
         <v>0.329623668858539</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E26">
         <v>1250</v>
       </c>
@@ -8953,7 +9223,7 @@
         <v>0.32580049984543102</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E27">
         <v>1300</v>
       </c>
@@ -8964,7 +9234,7 @@
         <v>0.322031183788342</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E28">
         <v>1350</v>
       </c>
@@ -8975,7 +9245,7 @@
         <v>0.31891963661534201</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E29">
         <v>1400</v>
       </c>
@@ -8986,7 +9256,7 @@
         <v>0.316540088340724</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E30">
         <v>1450</v>
       </c>
@@ -8997,7 +9267,7 @@
         <v>0.31417737324337103</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E31">
         <v>1500</v>
       </c>
@@ -9008,7 +9278,7 @@
         <v>0.31208086771968102</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E32">
         <v>1550</v>
       </c>
@@ -9019,7 +9289,7 @@
         <v>0.30981844349839299</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E33">
         <v>1600</v>
       </c>
@@ -9030,7 +9300,7 @@
         <v>0.308056497909172</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E34">
         <v>1650</v>
       </c>
@@ -9041,7 +9311,7 @@
         <v>0.30624561831136998</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E35">
         <v>1700</v>
       </c>
@@ -9052,7 +9322,7 @@
         <v>0.304561348919347</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E36">
         <v>1750</v>
       </c>
@@ -9063,7 +9333,7 @@
         <v>0.302461284643323</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E37">
         <v>1800</v>
       </c>
@@ -9074,7 +9344,7 @@
         <v>0.29885161296003598</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E38">
         <v>1850</v>
       </c>
@@ -9085,7 +9355,7 @@
         <v>0.29655102143430601</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E39">
         <v>1900</v>
       </c>
@@ -9096,7 +9366,7 @@
         <v>0.29457529614162598</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E40">
         <v>1950</v>
       </c>
@@ -9107,7 +9377,7 @@
         <v>0.29287102605445497</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E41">
         <v>2000</v>
       </c>
@@ -9118,7 +9388,7 @@
         <v>0.29061119719013401</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -9138,7 +9408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -9176,7 +9446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>100</v>
       </c>
@@ -9214,7 +9484,7 @@
         <v>0.42827232657272901</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>150</v>
       </c>
@@ -9252,7 +9522,7 @@
         <v>0.38587658812145198</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>200</v>
       </c>
@@ -9290,7 +9560,7 @@
         <v>0.35300784581331501</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>250</v>
       </c>
@@ -9328,7 +9598,7 @@
         <v>0.34728231706644902</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>300</v>
       </c>
@@ -9366,7 +9636,7 @@
         <v>0.29793231760236699</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>350</v>
       </c>
@@ -9404,7 +9674,7 @@
         <v>0.27658957797725697</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>400</v>
       </c>
@@ -9442,7 +9712,7 @@
         <v>0.27776881335458697</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>450</v>
       </c>
@@ -9480,7 +9750,7 @@
         <v>0.28631079858988301</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>500</v>
       </c>
@@ -9518,7 +9788,7 @@
         <v>0.286869227161129</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>550</v>
       </c>
@@ -9556,7 +9826,7 @@
         <v>0.27379077155055298</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>600</v>
       </c>
@@ -9594,7 +9864,7 @@
         <v>0.236310398533084</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>650</v>
       </c>
@@ -9632,7 +9902,7 @@
         <v>0.259309436317052</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>700</v>
       </c>
@@ -9670,7 +9940,7 @@
         <v>0.21427133888272901</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>750</v>
       </c>
@@ -9708,7 +9978,7 @@
         <v>0.231407548474659</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>800</v>
       </c>
@@ -9746,7 +10016,7 @@
         <v>0.23061051108279401</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>850</v>
       </c>
@@ -9784,7 +10054,7 @@
         <v>0.26702053951351801</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>900</v>
       </c>
@@ -9822,7 +10092,7 @@
         <v>0.19414986928192099</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>950</v>
       </c>
@@ -9860,7 +10130,7 @@
         <v>0.25594029381959399</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1000</v>
       </c>
@@ -9889,7 +10159,7 @@
         <v>0.18977251996545699</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E66">
         <v>1050</v>
       </c>
@@ -9900,7 +10170,7 @@
         <v>0.30465707018242799</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E67">
         <v>1100</v>
       </c>
@@ -9911,7 +10181,7 @@
         <v>0.30143478602442098</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E68">
         <v>1150</v>
       </c>
@@ -9922,7 +10192,7 @@
         <v>0.298016903699792</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E69">
         <v>1200</v>
       </c>
@@ -9933,7 +10203,7 @@
         <v>0.29435534792540502</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E70">
         <v>1250</v>
       </c>
@@ -9944,7 +10214,7 @@
         <v>0.29090688994445102</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E71">
         <v>1300</v>
       </c>
@@ -9955,7 +10225,7 @@
         <v>0.28854345624199002</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E72">
         <v>1350</v>
       </c>
@@ -9966,7 +10236,7 @@
         <v>0.28633976093784602</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E73">
         <v>1400</v>
       </c>
@@ -9977,7 +10247,7 @@
         <v>0.28443315720566698</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E74">
         <v>1450</v>
       </c>
@@ -9988,7 +10258,7 @@
         <v>0.28253269432085998</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E75">
         <v>1500</v>
       </c>
@@ -9999,7 +10269,7 @@
         <v>0.28073967354025198</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E76">
         <v>1550</v>
       </c>
@@ -10010,7 +10280,7 @@
         <v>0.27930218485902603</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E77">
         <v>1600</v>
       </c>
@@ -10021,7 +10291,7 @@
         <v>0.27797772635395701</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E78">
         <v>1650</v>
       </c>
@@ -10032,7 +10302,7 @@
         <v>0.27661117865868301</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E79">
         <v>1700</v>
       </c>
@@ -10043,7 +10313,7 @@
         <v>0.27532599924965201</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E80">
         <v>1750</v>
       </c>
@@ -10054,7 +10324,7 @@
         <v>0.273674840226583</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E81">
         <v>1800</v>
       </c>
@@ -10065,7 +10335,7 @@
         <v>0.270629413355568</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E82">
         <v>1850</v>
       </c>
@@ -10076,7 +10346,7 @@
         <v>0.268589918332033</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E83">
         <v>1900</v>
       </c>
@@ -10087,7 +10357,7 @@
         <v>0.26689610904754002</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E84">
         <v>1950</v>
       </c>
@@ -10098,7 +10368,7 @@
         <v>0.26547229059407801</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E85">
         <v>2000</v>
       </c>
@@ -10109,7 +10379,7 @@
         <v>0.263612793451109</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -10117,7 +10387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -10149,7 +10419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>100</v>
       </c>
@@ -10187,7 +10457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>150</v>
       </c>
@@ -10225,7 +10495,7 @@
         <v>0.36254377592630699</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>200</v>
       </c>
@@ -10263,7 +10533,7 @@
         <v>0.32910231075844498</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>250</v>
       </c>
@@ -10301,7 +10571,7 @@
         <v>0.30342882788651998</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>300</v>
       </c>
@@ -10339,7 +10609,7 @@
         <v>0.30200670764154602</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>350</v>
       </c>
@@ -10377,7 +10647,7 @@
         <v>0.25802533631572799</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>400</v>
       </c>
@@ -10415,7 +10685,7 @@
         <v>0.23917223181321701</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>450</v>
       </c>
@@ -10453,7 +10723,7 @@
         <v>0.24198823947970599</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>500</v>
       </c>
@@ -10491,7 +10761,7 @@
         <v>0.25255081761106002</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>550</v>
       </c>
@@ -10529,7 +10799,7 @@
         <v>0.25445105222476999</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>600</v>
       </c>
@@ -10567,7 +10837,7 @@
         <v>0.24365313495831201</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>650</v>
       </c>
@@ -10605,7 +10875,7 @@
         <v>0.20827357743143299</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>700</v>
       </c>
@@ -10643,7 +10913,7 @@
         <v>0.22999384773419801</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>750</v>
       </c>
@@ -10681,7 +10951,7 @@
         <v>0.18815330378449999</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>800</v>
       </c>
@@ -10719,7 +10989,7 @@
         <v>0.20642647565240799</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>850</v>
       </c>
@@ -10757,7 +11027,7 @@
         <v>0.204503399367401</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>900</v>
       </c>
@@ -10795,7 +11065,7 @@
         <v>0.241278122993551</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>950</v>
       </c>
@@ -10833,7 +11103,7 @@
         <v>0.17325167328996999</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>1000</v>
       </c>
@@ -10871,7 +11141,7 @@
         <v>0.23284996103454</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E108">
         <v>1050</v>
       </c>
@@ -10891,7 +11161,7 @@
         <v>0.16875044655544699</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E109">
         <v>1100</v>
       </c>
@@ -10902,7 +11172,7 @@
         <v>0.26292002427425798</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E110">
         <v>1150</v>
       </c>
@@ -10913,7 +11183,7 @@
         <v>0.26036082144306599</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E111">
         <v>1200</v>
       </c>
@@ -10924,7 +11194,7 @@
         <v>0.25842249138981799</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E112">
         <v>1250</v>
       </c>
@@ -10935,7 +11205,7 @@
         <v>0.25673629072930498</v>
       </c>
     </row>
-    <row r="113" spans="5:7">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E113">
         <v>1300</v>
       </c>
@@ -10946,7 +11216,7 @@
         <v>0.25511996070304199</v>
       </c>
     </row>
-    <row r="114" spans="5:7">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E114">
         <v>1350</v>
       </c>
@@ -10957,7 +11227,7 @@
         <v>0.253388637417227</v>
       </c>
     </row>
-    <row r="115" spans="5:7">
+    <row r="115" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E115">
         <v>1400</v>
       </c>
@@ -10968,7 +11238,7 @@
         <v>0.251753012982525</v>
       </c>
     </row>
-    <row r="116" spans="5:7">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E116">
         <v>1450</v>
       </c>
@@ -10979,7 +11249,7 @@
         <v>0.25038461725586802</v>
       </c>
     </row>
-    <row r="117" spans="5:7">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E117">
         <v>1500</v>
       </c>
@@ -10990,7 +11260,7 @@
         <v>0.24929203008053699</v>
       </c>
     </row>
-    <row r="118" spans="5:7">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E118">
         <v>1550</v>
       </c>
@@ -11001,7 +11271,7 @@
         <v>0.24829409477242201</v>
       </c>
     </row>
-    <row r="119" spans="5:7">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E119">
         <v>1600</v>
       </c>
@@ -11012,7 +11282,7 @@
         <v>0.247161399883225</v>
       </c>
     </row>
-    <row r="120" spans="5:7">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E120">
         <v>1650</v>
       </c>
@@ -11023,7 +11293,7 @@
         <v>0.24608180295154899</v>
       </c>
     </row>
-    <row r="121" spans="5:7">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E121">
         <v>1700</v>
       </c>
@@ -11034,7 +11304,7 @@
         <v>0.24525041472842399</v>
       </c>
     </row>
-    <row r="122" spans="5:7">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E122">
         <v>1750</v>
       </c>
@@ -11045,7 +11315,7 @@
         <v>0.24390321975596799</v>
       </c>
     </row>
-    <row r="123" spans="5:7">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E123">
         <v>1800</v>
       </c>
@@ -11056,7 +11326,7 @@
         <v>0.24129164398715999</v>
       </c>
     </row>
-    <row r="124" spans="5:7">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E124">
         <v>1850</v>
       </c>
@@ -11067,7 +11337,7 @@
         <v>0.23959566926652401</v>
       </c>
     </row>
-    <row r="125" spans="5:7">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E125">
         <v>1900</v>
       </c>
@@ -11078,7 +11348,7 @@
         <v>0.23818738163797501</v>
       </c>
     </row>
-    <row r="126" spans="5:7">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E126">
         <v>1950</v>
       </c>
@@ -11089,7 +11359,7 @@
         <v>0.23704926101027299</v>
       </c>
     </row>
-    <row r="127" spans="5:7">
+    <row r="127" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E127">
         <v>2000</v>
       </c>
@@ -11113,28 +11383,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V68" sqref="V68"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="13"/>
-    <col min="2" max="4" width="10.625"/>
-    <col min="5" max="5" width="13"/>
-    <col min="6" max="8" width="10.625"/>
-    <col min="9" max="11" width="9.125"/>
-    <col min="12" max="12" width="10.625"/>
-    <col min="13" max="13" width="13"/>
-    <col min="14" max="14" width="10.625"/>
-    <col min="15" max="15" width="13"/>
-    <col min="16" max="17" width="10.625"/>
-    <col min="18" max="1025" width="9.125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11163,7 +11420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -11201,7 +11458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>100</v>
       </c>
@@ -11245,7 +11502,7 @@
         <v>0.52451167403698795</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>150</v>
       </c>
@@ -11289,7 +11546,7 @@
         <v>0.45435365497145702</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200</v>
       </c>
@@ -11333,7 +11590,7 @@
         <v>0.43701714389299201</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>250</v>
       </c>
@@ -11377,7 +11634,7 @@
         <v>0.397547480685012</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>300</v>
       </c>
@@ -11421,7 +11678,7 @@
         <v>0.37819899595527501</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>350</v>
       </c>
@@ -11465,7 +11722,7 @@
         <v>0.35588007868969901</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>400</v>
       </c>
@@ -11509,7 +11766,7 @@
         <v>0.33435188817672801</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>450</v>
       </c>
@@ -11553,7 +11810,7 @@
         <v>0.293941391925161</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>500</v>
       </c>
@@ -11597,7 +11854,7 @@
         <v>0.35023175949553997</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>550</v>
       </c>
@@ -11641,7 +11898,7 @@
         <v>0.33894558289428001</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>600</v>
       </c>
@@ -11685,7 +11942,7 @@
         <v>0.31302123700831203</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>650</v>
       </c>
@@ -11729,7 +11986,7 @@
         <v>0.294676528668462</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>700</v>
       </c>
@@ -11773,7 +12030,7 @@
         <v>0.28082729951832802</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>750</v>
       </c>
@@ -11817,7 +12074,7 @@
         <v>0.289484490580728</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>800</v>
       </c>
@@ -11861,7 +12118,7 @@
         <v>0.273491002240484</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>850</v>
       </c>
@@ -11905,7 +12162,7 @@
         <v>0.27059348822948198</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>900</v>
       </c>
@@ -11949,7 +12206,7 @@
         <v>0.253402141670243</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>950</v>
       </c>
@@ -11993,7 +12250,7 @@
         <v>0.246100668521059</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -12037,1774 +12294,3094 @@
         <v>0.27570689440798901</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="A45" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O22">
+        <v>1050</v>
+      </c>
+      <c r="P22">
+        <v>1413.2750271316099</v>
+      </c>
+      <c r="Q22">
+        <v>0.25399277925702202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O23">
+        <v>1100</v>
+      </c>
+      <c r="P23">
+        <v>1570.28988716194</v>
+      </c>
+      <c r="Q23">
+        <v>0.26318655857083401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O24">
+        <v>1150</v>
+      </c>
+      <c r="P24">
+        <v>1906.70425021594</v>
+      </c>
+      <c r="Q24">
+        <v>0.21066551299334499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O25">
+        <v>1200</v>
+      </c>
+      <c r="P25">
+        <v>2183.1979854108999</v>
+      </c>
+      <c r="Q25">
+        <v>0.213189646220695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O26">
+        <v>1250</v>
+      </c>
+      <c r="P26">
+        <v>1712.8526025967899</v>
+      </c>
+      <c r="Q26">
+        <v>0.207616991915441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O27">
+        <v>1300</v>
+      </c>
+      <c r="P27">
+        <v>2378.5508786135001</v>
+      </c>
+      <c r="Q27">
+        <v>0.20691055500125299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O28">
+        <v>1350</v>
+      </c>
+      <c r="P28">
+        <v>1972.1622427836501</v>
+      </c>
+      <c r="Q28">
+        <v>0.23147921821867401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O29">
+        <v>1400</v>
+      </c>
+      <c r="P29">
+        <v>1873.57120948685</v>
+      </c>
+      <c r="Q29">
+        <v>0.24554081154426799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O30">
+        <v>1450</v>
+      </c>
+      <c r="P30">
+        <v>1432.7486720541101</v>
+      </c>
+      <c r="Q30">
+        <v>0.23810537487422101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O31">
+        <v>1500</v>
+      </c>
+      <c r="P31">
+        <v>1796.9005004027799</v>
+      </c>
+      <c r="Q31">
+        <v>0.22020225611772401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O32">
+        <v>1550</v>
+      </c>
+      <c r="P32">
+        <v>2892.1139593599</v>
+      </c>
+      <c r="Q32">
+        <v>0.17101062867757699</v>
+      </c>
+    </row>
+    <row r="33" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O33">
+        <v>1600</v>
+      </c>
+      <c r="P33">
+        <v>1970.72264561305</v>
+      </c>
+      <c r="Q33">
+        <v>0.20955585575003599</v>
+      </c>
+    </row>
+    <row r="34" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O34">
+        <v>1650</v>
+      </c>
+      <c r="P34">
+        <v>2309.89499678223</v>
+      </c>
+      <c r="Q34">
+        <v>0.18549457672928599</v>
+      </c>
+    </row>
+    <row r="35" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O35">
+        <v>1700</v>
+      </c>
+      <c r="P35">
+        <v>1773.82918058104</v>
+      </c>
+      <c r="Q35">
+        <v>0.23962227644873699</v>
+      </c>
+    </row>
+    <row r="36" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O36">
+        <v>1750</v>
+      </c>
+      <c r="P36">
+        <v>2710.6062271165301</v>
+      </c>
+      <c r="Q36">
+        <v>0.197902041663019</v>
+      </c>
+    </row>
+    <row r="37" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O37">
+        <v>1800</v>
+      </c>
+      <c r="P37">
+        <v>2459.9049871186699</v>
+      </c>
+      <c r="Q37">
+        <v>0.213621062081538</v>
+      </c>
+    </row>
+    <row r="38" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O38">
+        <v>1850</v>
+      </c>
+      <c r="P38">
+        <v>2614.8475169836502</v>
+      </c>
+      <c r="Q38">
+        <v>0.182279335174865</v>
+      </c>
+    </row>
+    <row r="39" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O39">
+        <v>1900</v>
+      </c>
+      <c r="P39">
+        <v>2849.9520924339299</v>
+      </c>
+      <c r="Q39">
+        <v>0.190130371597694</v>
+      </c>
+    </row>
+    <row r="40" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O40">
+        <v>1950</v>
+      </c>
+      <c r="P40">
+        <v>2948.3075910205198</v>
+      </c>
+      <c r="Q40">
+        <v>0.19864734705845899</v>
+      </c>
+    </row>
+    <row r="41" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O41">
+        <v>2000</v>
+      </c>
+      <c r="P41">
+        <v>3001.6553932842198</v>
+      </c>
+      <c r="Q41">
+        <v>0.177839798111459</v>
+      </c>
+    </row>
+    <row r="42" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O42">
+        <v>2050</v>
+      </c>
+      <c r="P42">
+        <v>4493.2166727721797</v>
+      </c>
+      <c r="Q42">
+        <v>0.12534813566240099</v>
+      </c>
+    </row>
+    <row r="43" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O43">
+        <v>2100</v>
+      </c>
+      <c r="P43">
+        <v>2891.06542106697</v>
+      </c>
+      <c r="Q43">
+        <v>0.217022528165805</v>
+      </c>
+    </row>
+    <row r="44" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O44">
+        <v>2150</v>
+      </c>
+      <c r="P44">
+        <v>3372.60137963649</v>
+      </c>
+      <c r="Q44">
+        <v>0.16843946221598299</v>
+      </c>
+    </row>
+    <row r="45" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O45">
+        <v>2200</v>
+      </c>
+      <c r="P45">
+        <v>3747.2281769567398</v>
+      </c>
+      <c r="Q45">
+        <v>0.108062912106731</v>
+      </c>
+    </row>
+    <row r="46" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O46">
+        <v>2250</v>
+      </c>
+      <c r="P46">
+        <v>3523.9566430761001</v>
+      </c>
+      <c r="Q46">
+        <v>0.17735194690309999</v>
+      </c>
+    </row>
+    <row r="47" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O47">
+        <v>2300</v>
+      </c>
+      <c r="P47">
+        <v>4350.1871969449703</v>
+      </c>
+      <c r="Q47">
+        <v>0.168591847111738</v>
+      </c>
+    </row>
+    <row r="48" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O48">
+        <v>2350</v>
+      </c>
+      <c r="P48">
+        <v>5345.9817273553799</v>
+      </c>
+      <c r="Q48">
+        <v>0.157366046328724</v>
+      </c>
+    </row>
+    <row r="49" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O49">
+        <v>2400</v>
+      </c>
+      <c r="P49">
+        <v>4161.4843050938798</v>
+      </c>
+      <c r="Q49">
+        <v>0.19036405371743501</v>
+      </c>
+    </row>
+    <row r="50" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O50">
+        <v>2450</v>
+      </c>
+      <c r="P50">
+        <v>4033.0548731757199</v>
+      </c>
+      <c r="Q50">
+        <v>0.22585790218302701</v>
+      </c>
+    </row>
+    <row r="51" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O51">
+        <v>2500</v>
+      </c>
+      <c r="P51">
+        <v>3960.3264349604101</v>
+      </c>
+      <c r="Q51">
+        <v>0.14658814969643</v>
+      </c>
+    </row>
+    <row r="52" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O52">
+        <v>2550</v>
+      </c>
+      <c r="P52">
+        <v>3797.4671754670599</v>
+      </c>
+      <c r="Q52">
+        <v>0.16054146943658801</v>
+      </c>
+    </row>
+    <row r="53" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O53">
+        <v>2600</v>
+      </c>
+      <c r="P53">
+        <v>7076.7880877805601</v>
+      </c>
+      <c r="Q53">
+        <v>3.8853057538356002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O54">
+        <v>2650</v>
+      </c>
+      <c r="P54">
+        <v>3005.8315645365201</v>
+      </c>
+      <c r="Q54">
+        <v>0.19887397979479399</v>
+      </c>
+    </row>
+    <row r="55" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O55">
+        <v>2700</v>
+      </c>
+      <c r="P55">
+        <v>4643.5684835664497</v>
+      </c>
+      <c r="Q55">
+        <v>0.164150253350722</v>
+      </c>
+    </row>
+    <row r="56" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O56">
+        <v>2750</v>
+      </c>
+      <c r="P56">
+        <v>2582.3912609209501</v>
+      </c>
+      <c r="Q56">
+        <v>0.20364542605515801</v>
+      </c>
+    </row>
+    <row r="57" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O57">
+        <v>2800</v>
+      </c>
+      <c r="P57">
+        <v>5391.9188024354798</v>
+      </c>
+      <c r="Q57">
+        <v>0.11469513274154799</v>
+      </c>
+    </row>
+    <row r="58" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O58">
+        <v>2850</v>
+      </c>
+      <c r="P58">
+        <v>6045.7874253280397</v>
+      </c>
+      <c r="Q58">
+        <v>0.12679807652844899</v>
+      </c>
+    </row>
+    <row r="59" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O59">
+        <v>2900</v>
+      </c>
+      <c r="P59">
+        <v>3777.7311773513602</v>
+      </c>
+      <c r="Q59">
+        <v>0.13801566541537599</v>
+      </c>
+    </row>
+    <row r="60" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O60">
+        <v>2950</v>
+      </c>
+      <c r="P60">
+        <v>2922.7718243116801</v>
+      </c>
+      <c r="Q60">
+        <v>0.193064335364766</v>
+      </c>
+    </row>
+    <row r="61" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O61">
+        <v>3000</v>
+      </c>
+      <c r="P61">
+        <v>3244.2384140139302</v>
+      </c>
+      <c r="Q61">
+        <v>0.179399350547158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>13</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E70" t="s">
         <v>13</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I70" t="s">
         <v>11</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J70" t="s">
         <v>14</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K70" t="s">
         <v>15</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="A46" t="s">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>8</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B71" t="s">
         <v>9</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C71" t="s">
         <v>10</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E71" t="s">
         <v>8</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F71" t="s">
         <v>9</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G71" t="s">
         <v>10</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O71" t="s">
         <v>8</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P71" t="s">
         <v>9</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
-      <c r="A47">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72">
         <v>100</v>
       </c>
-      <c r="B47">
+      <c r="B72">
         <v>205.21974773749</v>
       </c>
-      <c r="C47">
+      <c r="C72">
         <v>0.39402964405294899</v>
       </c>
-      <c r="E47">
+      <c r="E72">
         <v>100</v>
       </c>
-      <c r="F47">
+      <c r="F72">
         <v>49.907119959990197</v>
       </c>
-      <c r="G47">
+      <c r="G72">
         <v>0.54818038892080201</v>
       </c>
-      <c r="I47">
+      <c r="I72">
         <v>100</v>
       </c>
-      <c r="J47">
+      <c r="J72">
         <v>501</v>
       </c>
-      <c r="K47">
+      <c r="K72">
         <v>251</v>
       </c>
-      <c r="L47">
+      <c r="L72">
         <v>305.76992897169703</v>
       </c>
-      <c r="M47">
+      <c r="M72">
         <v>0.35904184234256697</v>
       </c>
-      <c r="O47">
+      <c r="O72">
         <v>100</v>
       </c>
-      <c r="P47">
+      <c r="P72">
         <v>103.494720238677</v>
       </c>
-      <c r="Q47">
+      <c r="Q72">
         <v>0.46652390657426301</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
-      <c r="A48">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73">
         <v>150</v>
       </c>
-      <c r="B48">
+      <c r="B73">
         <v>330.78929105140497</v>
       </c>
-      <c r="C48">
+      <c r="C73">
         <v>0.342724988366505</v>
       </c>
-      <c r="E48">
+      <c r="E73">
         <v>150</v>
       </c>
-      <c r="F48">
+      <c r="F73">
         <v>75.542002355266504</v>
       </c>
-      <c r="G48">
+      <c r="G73">
         <v>0.500259482554408</v>
       </c>
-      <c r="I48">
+      <c r="I73">
         <v>150</v>
       </c>
-      <c r="J48">
+      <c r="J73">
         <v>751</v>
       </c>
-      <c r="K48">
+      <c r="K73">
         <v>371</v>
       </c>
-      <c r="L48">
+      <c r="L73">
         <v>466.931199458631</v>
       </c>
-      <c r="M48">
+      <c r="M73">
         <v>0.324942017647884</v>
       </c>
-      <c r="O48">
+      <c r="O73">
         <v>150</v>
       </c>
-      <c r="P48">
+      <c r="P73">
         <v>161.99042980926899</v>
       </c>
-      <c r="Q48">
+      <c r="Q73">
         <v>0.40539518064111402</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
-      <c r="A49">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74">
         <v>200</v>
       </c>
-      <c r="B49">
+      <c r="B74">
         <v>470.75242416536099</v>
       </c>
-      <c r="C49">
+      <c r="C74">
         <v>0.30765664999490899</v>
       </c>
-      <c r="E49">
+      <c r="E74">
         <v>200</v>
       </c>
-      <c r="F49">
+      <c r="F74">
         <v>100.672103099381</v>
       </c>
-      <c r="G49">
+      <c r="G74">
         <v>0.46923543998371797</v>
       </c>
-      <c r="I49">
+      <c r="I74">
         <v>200</v>
       </c>
-      <c r="J49">
+      <c r="J74">
         <v>1001</v>
       </c>
-      <c r="K49">
+      <c r="K74">
         <v>501</v>
       </c>
-      <c r="L49">
+      <c r="L74">
         <v>600.58124261165403</v>
       </c>
-      <c r="M49">
+      <c r="M74">
         <v>0.30638902688460501</v>
       </c>
-      <c r="O49">
+      <c r="O74">
         <v>200</v>
       </c>
-      <c r="P49">
+      <c r="P74">
         <v>192.81021454406701</v>
       </c>
-      <c r="Q49">
+      <c r="Q74">
         <v>0.39087326557614499</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
-      <c r="A50">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75">
         <v>250</v>
       </c>
-      <c r="B50">
+      <c r="B75">
         <v>591.66749527878801</v>
       </c>
-      <c r="C50">
+      <c r="C75">
         <v>0.28878822524386899</v>
       </c>
-      <c r="E50">
+      <c r="E75">
         <v>250</v>
       </c>
-      <c r="F50">
+      <c r="F75">
         <v>126.115031169105</v>
       </c>
-      <c r="G50">
+      <c r="G75">
         <v>0.440053443212718</v>
       </c>
-      <c r="I50">
+      <c r="I75">
         <v>250</v>
       </c>
-      <c r="J50">
+      <c r="J75">
         <v>1251</v>
       </c>
-      <c r="K50">
+      <c r="K75">
         <v>621</v>
       </c>
-      <c r="L50">
+      <c r="L75">
         <v>814.75806391975198</v>
       </c>
-      <c r="M50">
+      <c r="M75">
         <v>0.274635531596993</v>
       </c>
-      <c r="O50">
+      <c r="O75">
         <v>250</v>
       </c>
-      <c r="P50">
+      <c r="P75">
         <v>287.491706423398</v>
       </c>
-      <c r="Q50">
+      <c r="Q75">
         <v>0.35703587012185301</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
-      <c r="A51">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>300</v>
       </c>
-      <c r="B51">
+      <c r="B76">
         <v>720.69876158268301</v>
       </c>
-      <c r="C51">
+      <c r="C76">
         <v>0.27754091147918297</v>
       </c>
-      <c r="E51">
+      <c r="E76">
         <v>300</v>
       </c>
-      <c r="F51">
+      <c r="F76">
         <v>149.04927766462799</v>
       </c>
-      <c r="G51">
+      <c r="G76">
         <v>0.42155652859408299</v>
       </c>
-      <c r="I51">
+      <c r="I76">
         <v>300</v>
       </c>
-      <c r="J51">
+      <c r="J76">
         <v>1501</v>
       </c>
-      <c r="K51">
+      <c r="K76">
         <v>751</v>
       </c>
-      <c r="L51">
+      <c r="L76">
         <v>1052.03854317287</v>
       </c>
-      <c r="M51">
+      <c r="M76">
         <v>0.25757712537177102</v>
       </c>
-      <c r="O51">
+      <c r="O76">
         <v>300</v>
       </c>
-      <c r="P51">
+      <c r="P76">
         <v>419.51282750684601</v>
       </c>
-      <c r="Q51">
+      <c r="Q76">
         <v>0.339427030023287</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
-      <c r="A52">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A77">
         <v>350</v>
       </c>
-      <c r="B52">
+      <c r="B77">
         <v>867.50131664340199</v>
       </c>
-      <c r="C52">
+      <c r="C77">
         <v>0.26021196363398902</v>
       </c>
-      <c r="E52">
+      <c r="E77">
         <v>350</v>
       </c>
-      <c r="F52">
+      <c r="F77">
         <v>174.515360908003</v>
       </c>
-      <c r="G52">
+      <c r="G77">
         <v>0.40583176865055098</v>
       </c>
-      <c r="I52">
+      <c r="I77">
         <v>350</v>
       </c>
-      <c r="J52">
+      <c r="J77">
         <v>1751</v>
       </c>
-      <c r="K52">
+      <c r="K77">
         <v>871</v>
       </c>
-      <c r="L52">
+      <c r="L77">
         <v>1124.9928495030599</v>
       </c>
-      <c r="M52">
+      <c r="M77">
         <v>0.26095733440710001</v>
       </c>
-      <c r="O52">
+      <c r="O77">
         <v>350</v>
       </c>
-      <c r="P52">
+      <c r="P77">
         <v>423.05515892444799</v>
       </c>
-      <c r="Q52">
+      <c r="Q77">
         <v>0.319778068286873</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
-      <c r="A53">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A78">
         <v>400</v>
       </c>
-      <c r="B53">
+      <c r="B78">
         <v>986.24521085053198</v>
       </c>
-      <c r="C53">
+      <c r="C78">
         <v>0.25201642289291798</v>
       </c>
-      <c r="E53">
+      <c r="E78">
         <v>400</v>
       </c>
-      <c r="F53">
+      <c r="F78">
         <v>200.569115070566</v>
       </c>
-      <c r="G53">
+      <c r="G78">
         <v>0.38923645406561203</v>
       </c>
-      <c r="I53">
+      <c r="I78">
         <v>400</v>
       </c>
-      <c r="J53">
+      <c r="J78">
         <v>2001</v>
       </c>
-      <c r="K53">
+      <c r="K78">
         <v>1001</v>
       </c>
-      <c r="L53">
+      <c r="L78">
         <v>1206.6386367121299</v>
       </c>
-      <c r="M53">
+      <c r="M78">
         <v>0.241023011482487</v>
       </c>
-      <c r="O53">
+      <c r="O78">
         <v>400</v>
       </c>
-      <c r="P53">
+      <c r="P78">
         <v>418.26953388881401</v>
       </c>
-      <c r="Q53">
+      <c r="Q78">
         <v>0.30156882470964302</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
-      <c r="A54">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A79">
         <v>450</v>
       </c>
-      <c r="B54">
+      <c r="B79">
         <v>1101.6126132178299</v>
       </c>
-      <c r="C54">
+      <c r="C79">
         <v>0.23886207250180799</v>
       </c>
-      <c r="E54">
+      <c r="E79">
         <v>450</v>
       </c>
-      <c r="F54">
+      <c r="F79">
         <v>223.15165154709399</v>
       </c>
-      <c r="G54">
+      <c r="G79">
         <v>0.37859843805688498</v>
       </c>
-      <c r="I54">
+      <c r="I79">
         <v>450</v>
       </c>
-      <c r="J54">
+      <c r="J79">
         <v>2251</v>
       </c>
-      <c r="K54">
+      <c r="K79">
         <v>1121</v>
       </c>
-      <c r="L54">
+      <c r="L79">
         <v>1557.05233674074</v>
       </c>
-      <c r="M54">
+      <c r="M79">
         <v>0.21369142961197901</v>
       </c>
-      <c r="O54">
+      <c r="O79">
         <v>450</v>
       </c>
-      <c r="P54">
+      <c r="P79">
         <v>614.08866137474297</v>
       </c>
-      <c r="Q54">
+      <c r="Q79">
         <v>0.26374365764875801</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="A55">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A80">
         <v>500</v>
       </c>
-      <c r="B55">
+      <c r="B80">
         <v>1231.0022837461499</v>
       </c>
-      <c r="C55">
+      <c r="C80">
         <v>0.220935025290173</v>
       </c>
-      <c r="E55">
+      <c r="E80">
         <v>500</v>
       </c>
-      <c r="F55">
+      <c r="F80">
         <v>243.914000960094</v>
       </c>
-      <c r="G55">
+      <c r="G80">
         <v>0.36514604364309</v>
       </c>
-      <c r="I55">
+      <c r="I80">
         <v>500</v>
       </c>
-      <c r="J55">
+      <c r="J80">
         <v>2501</v>
       </c>
-      <c r="K55">
+      <c r="K80">
         <v>1251</v>
       </c>
-      <c r="L55">
+      <c r="L80">
         <v>1651.4107687396399</v>
       </c>
-      <c r="M55">
+      <c r="M80">
         <v>0.22925431360224499</v>
       </c>
-      <c r="O55">
+      <c r="O80">
         <v>500</v>
       </c>
-      <c r="P55">
+      <c r="P80">
         <v>585.85411892289596</v>
       </c>
-      <c r="Q55">
+      <c r="Q80">
         <v>0.31847988185544701</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
-      <c r="A56">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A81">
         <v>550</v>
       </c>
-      <c r="B56">
+      <c r="B81">
         <v>1377.96897608874</v>
       </c>
-      <c r="C56">
+      <c r="C81">
         <v>0.21061558469149799</v>
       </c>
-      <c r="E56">
+      <c r="E81">
         <v>550</v>
       </c>
-      <c r="F56">
+      <c r="F81">
         <v>268.637150453206</v>
       </c>
-      <c r="G56">
+      <c r="G81">
         <v>0.35829470332059599</v>
       </c>
-      <c r="I56">
+      <c r="I81">
         <v>550</v>
       </c>
-      <c r="J56">
+      <c r="J81">
         <v>2751</v>
       </c>
-      <c r="K56">
+      <c r="K81">
         <v>1371</v>
       </c>
-      <c r="L56">
+      <c r="L81">
         <v>1830.78323536227</v>
       </c>
-      <c r="M56">
+      <c r="M81">
         <v>0.228086011158845</v>
       </c>
-      <c r="O56">
+      <c r="O81">
         <v>550</v>
       </c>
-      <c r="P56">
+      <c r="P81">
         <v>696.62746561633799</v>
       </c>
-      <c r="Q56">
+      <c r="Q81">
         <v>0.30906319892864298</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
-      <c r="A57">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A82">
         <v>600</v>
       </c>
-      <c r="B57">
+      <c r="B82">
         <v>1506.0325230784199</v>
       </c>
-      <c r="C57">
+      <c r="C82">
         <v>0.20712159695702301</v>
       </c>
-      <c r="E57">
+      <c r="E82">
         <v>600</v>
       </c>
-      <c r="F57">
+      <c r="F82">
         <v>287.138747427422</v>
       </c>
-      <c r="G57">
+      <c r="G82">
         <v>0.35169193280716099</v>
       </c>
-      <c r="I57">
+      <c r="I82">
         <v>600</v>
       </c>
-      <c r="J57">
+      <c r="J82">
         <v>3001</v>
       </c>
-      <c r="K57">
+      <c r="K82">
         <v>1501</v>
       </c>
-      <c r="L57">
+      <c r="L82">
         <v>2067.4287249142699</v>
       </c>
-      <c r="M57">
+      <c r="M82">
         <v>0.22392793139993</v>
       </c>
-      <c r="O57">
+      <c r="O82">
         <v>600</v>
       </c>
-      <c r="P57">
+      <c r="P82">
         <v>772.80614521757195</v>
       </c>
-      <c r="Q57">
+      <c r="Q82">
         <v>0.28580326386727001</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
-      <c r="A58">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A83">
         <v>650</v>
       </c>
-      <c r="B58">
+      <c r="B83">
         <v>1741.4363117371799</v>
       </c>
-      <c r="C58">
+      <c r="C83">
         <v>0.20257359927910501</v>
       </c>
-      <c r="E58">
+      <c r="E83">
         <v>650</v>
       </c>
-      <c r="F58">
+      <c r="F83">
         <v>309.32267220212998</v>
       </c>
-      <c r="G58">
+      <c r="G83">
         <v>0.34547646444426799</v>
       </c>
-      <c r="I58">
+      <c r="I83">
         <v>650</v>
       </c>
-      <c r="J58">
+      <c r="J83">
         <v>3251</v>
       </c>
-      <c r="K58">
+      <c r="K83">
         <v>1621</v>
       </c>
-      <c r="L58">
+      <c r="L83">
         <v>2175.4121530884399</v>
       </c>
-      <c r="M58">
+      <c r="M83">
         <v>0.20583477949478499</v>
       </c>
-      <c r="O58">
+      <c r="O83">
         <v>650</v>
       </c>
-      <c r="P58">
+      <c r="P83">
         <v>805.84585601165202</v>
       </c>
-      <c r="Q58">
+      <c r="Q83">
         <v>0.267808972636776</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
-      <c r="A59">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A84">
         <v>700</v>
       </c>
-      <c r="B59">
+      <c r="B84">
         <v>1970.9711773101401</v>
       </c>
-      <c r="C59">
+      <c r="C84">
         <v>0.17626532668565001</v>
       </c>
-      <c r="E59">
+      <c r="E84">
         <v>700</v>
       </c>
-      <c r="F59">
+      <c r="F84">
         <v>334.073179313747</v>
       </c>
-      <c r="G59">
+      <c r="G84">
         <v>0.34041007221844699</v>
       </c>
-      <c r="I59">
+      <c r="I84">
         <v>700</v>
       </c>
-      <c r="J59">
+      <c r="J84">
         <v>3501</v>
       </c>
-      <c r="K59">
+      <c r="K84">
         <v>1751</v>
       </c>
-      <c r="L59">
+      <c r="L84">
         <v>2308.7103574408602</v>
       </c>
-      <c r="M59">
+      <c r="M84">
         <v>0.21515670093137701</v>
       </c>
-      <c r="O59">
+      <c r="O84">
         <v>700</v>
       </c>
-      <c r="P59">
+      <c r="P84">
         <v>882.74087157047097</v>
       </c>
-      <c r="Q59">
+      <c r="Q84">
         <v>0.25464281116441201</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
-      <c r="A60">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A85">
         <v>750</v>
       </c>
-      <c r="B60">
+      <c r="B85">
         <v>2067.5874602850099</v>
       </c>
-      <c r="C60">
+      <c r="C85">
         <v>0.17365065396707899</v>
       </c>
-      <c r="E60">
+      <c r="E85">
         <v>750</v>
       </c>
-      <c r="F60">
+      <c r="F85">
         <v>359.05123442368898</v>
       </c>
-      <c r="G60">
+      <c r="G85">
         <v>0.33414309699067102</v>
       </c>
-      <c r="I60">
+      <c r="I85">
         <v>750</v>
       </c>
-      <c r="J60">
+      <c r="J85">
         <v>3751</v>
       </c>
-      <c r="K60">
+      <c r="K85">
         <v>1871</v>
       </c>
-      <c r="L60">
+      <c r="L85">
         <v>2408.5039558885701</v>
       </c>
-      <c r="M60">
+      <c r="M85">
         <v>0.210131253750348</v>
       </c>
-      <c r="O60">
+      <c r="O85">
         <v>750</v>
       </c>
-      <c r="P60">
+      <c r="P85">
         <v>892.10072215132504</v>
       </c>
-      <c r="Q60">
+      <c r="Q85">
         <v>0.26602524279560003</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
-      <c r="A61">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>800</v>
       </c>
-      <c r="B61">
+      <c r="B86">
         <v>2203.7529355384199</v>
       </c>
-      <c r="C61">
+      <c r="C86">
         <v>0.171145531207549</v>
       </c>
-      <c r="E61">
+      <c r="E86">
         <v>800</v>
       </c>
-      <c r="F61">
+      <c r="F86">
         <v>377.17996071737701</v>
       </c>
-      <c r="G61">
+      <c r="G86">
         <v>0.32875057969400401</v>
       </c>
-      <c r="I61">
+      <c r="I86">
         <v>800</v>
       </c>
-      <c r="J61">
+      <c r="J86">
         <v>4001</v>
       </c>
-      <c r="K61">
+      <c r="K86">
         <v>2001</v>
       </c>
-      <c r="L61">
+      <c r="L86">
         <v>2591.11926901876</v>
       </c>
-      <c r="M61">
+      <c r="M86">
         <v>0.182102502906862</v>
       </c>
-      <c r="O61">
+      <c r="O86">
         <v>800</v>
       </c>
-      <c r="P61">
+      <c r="P86">
         <v>826.83821405003096</v>
       </c>
-      <c r="Q61">
+      <c r="Q86">
         <v>0.24885273190770399</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
-      <c r="A62">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A87">
         <v>850</v>
       </c>
-      <c r="B62">
+      <c r="B87">
         <v>2300.5486618445002</v>
       </c>
-      <c r="C62">
+      <c r="C87">
         <v>0.169611458327106</v>
       </c>
-      <c r="E62">
+      <c r="E87">
         <v>850</v>
       </c>
-      <c r="F62">
+      <c r="F87">
         <v>397.805778531952</v>
       </c>
-      <c r="G62">
+      <c r="G87">
         <v>0.32504828412483</v>
       </c>
-      <c r="I62">
+      <c r="I87">
         <v>850</v>
       </c>
-      <c r="J62">
+      <c r="J87">
         <v>4251</v>
       </c>
-      <c r="K62">
+      <c r="K87">
         <v>2121</v>
       </c>
-      <c r="L62">
+      <c r="L87">
         <v>2907.3261344327302</v>
       </c>
-      <c r="M62">
+      <c r="M87">
         <v>0.17506721341568701</v>
       </c>
-      <c r="O62">
+      <c r="O87">
         <v>850</v>
       </c>
-      <c r="P62">
+      <c r="P87">
         <v>1044.6655814226399</v>
       </c>
-      <c r="Q62">
+      <c r="Q87">
         <v>0.24233957443604501</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
-      <c r="A63">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A88">
         <v>900</v>
       </c>
-      <c r="B63">
+      <c r="B88">
         <v>2392.0635139576798</v>
       </c>
-      <c r="C63">
+      <c r="C88">
         <v>0.16798392073358701</v>
       </c>
-      <c r="E63">
+      <c r="E88">
         <v>900</v>
       </c>
-      <c r="F63">
+      <c r="F88">
         <v>419.31456940928501</v>
       </c>
-      <c r="G63">
+      <c r="G88">
         <v>0.31707274920884099</v>
       </c>
-      <c r="I63">
+      <c r="I88">
         <v>900</v>
       </c>
-      <c r="J63">
+      <c r="J88">
         <v>4501</v>
       </c>
-      <c r="K63">
+      <c r="K88">
         <v>2251</v>
       </c>
-      <c r="L63">
+      <c r="L88">
         <v>3213.1566292911898</v>
       </c>
-      <c r="M63">
+      <c r="M88">
         <v>0.167587704432063</v>
       </c>
-      <c r="O63">
+      <c r="O88">
         <v>900</v>
       </c>
-      <c r="P63">
+      <c r="P88">
         <v>1243.08363246114</v>
       </c>
-      <c r="Q63">
+      <c r="Q88">
         <v>0.23151840437850699</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
-      <c r="A64">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>950</v>
       </c>
-      <c r="B64">
+      <c r="B89">
         <v>2479.7550213448899</v>
       </c>
-      <c r="C64">
+      <c r="C89">
         <v>0.16675147950984501</v>
       </c>
-      <c r="E64">
+      <c r="E89">
         <v>950</v>
       </c>
-      <c r="F64">
+      <c r="F89">
         <v>437.340402714535</v>
       </c>
-      <c r="G64">
+      <c r="G89">
         <v>0.31326994389505303</v>
       </c>
-      <c r="I64">
+      <c r="I89">
         <v>950</v>
       </c>
-      <c r="J64">
+      <c r="J89">
         <v>4751</v>
       </c>
-      <c r="K64">
+      <c r="K89">
         <v>2371</v>
       </c>
-      <c r="L64">
+      <c r="L89">
         <v>3226.15301186036</v>
       </c>
-      <c r="M64">
+      <c r="M89">
         <v>0.170435222217489</v>
       </c>
-      <c r="O64">
+      <c r="O89">
         <v>950</v>
       </c>
-      <c r="P64">
+      <c r="P89">
         <v>1295.5196124532499</v>
       </c>
-      <c r="Q64">
+      <c r="Q89">
         <v>0.223507094634429</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
-      <c r="A65">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>1000</v>
       </c>
-      <c r="B65">
+      <c r="B90">
         <v>2672.8074017398699</v>
       </c>
-      <c r="C65">
+      <c r="C90">
         <v>0.16538700530147801</v>
       </c>
-      <c r="E65">
+      <c r="E90">
         <v>1000</v>
       </c>
-      <c r="F65">
+      <c r="F90">
         <v>465.45754396427202</v>
       </c>
-      <c r="G65">
+      <c r="G90">
         <v>0.31007717499021897</v>
       </c>
-      <c r="I65">
+      <c r="I90">
         <v>1000</v>
       </c>
-      <c r="J65">
+      <c r="J90">
         <v>5001</v>
       </c>
-      <c r="K65">
+      <c r="K90">
         <v>2501</v>
       </c>
-      <c r="L65">
+      <c r="L90">
         <v>3248.8449083842502</v>
       </c>
-      <c r="M65">
+      <c r="M90">
         <v>0.18968626451881901</v>
       </c>
-      <c r="O65">
+      <c r="O90">
         <v>1000</v>
       </c>
-      <c r="P65">
+      <c r="P90">
         <v>1148.4941064698201</v>
       </c>
-      <c r="Q65">
+      <c r="Q90">
         <v>0.25357628067655402</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15">
-      <c r="A87" t="s">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O91">
+        <v>1050</v>
+      </c>
+      <c r="P91">
+        <v>1413.2750271316099</v>
+      </c>
+      <c r="Q91">
+        <v>0.23289610367810901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O92">
+        <v>1100</v>
+      </c>
+      <c r="P92">
+        <v>1570.28988716194</v>
+      </c>
+      <c r="Q92">
+        <v>0.242974779734563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O93">
+        <v>1150</v>
+      </c>
+      <c r="P93">
+        <v>1906.70425021594</v>
+      </c>
+      <c r="Q93">
+        <v>0.19002491439251801</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O94">
+        <v>1200</v>
+      </c>
+      <c r="P94">
+        <v>2183.1979854108999</v>
+      </c>
+      <c r="Q94">
+        <v>0.19723319891888599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O95">
+        <v>1250</v>
+      </c>
+      <c r="P95">
+        <v>1712.8526025967899</v>
+      </c>
+      <c r="Q95">
+        <v>0.188856994401252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O96">
+        <v>1300</v>
+      </c>
+      <c r="P96">
+        <v>2378.5508786135001</v>
+      </c>
+      <c r="Q96">
+        <v>0.189172469992475</v>
+      </c>
+    </row>
+    <row r="97" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O97">
+        <v>1350</v>
+      </c>
+      <c r="P97">
+        <v>1972.1622427836501</v>
+      </c>
+      <c r="Q97">
+        <v>0.21411712219771001</v>
+      </c>
+    </row>
+    <row r="98" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O98">
+        <v>1400</v>
+      </c>
+      <c r="P98">
+        <v>1873.57120948685</v>
+      </c>
+      <c r="Q98">
+        <v>0.22753670056877201</v>
+      </c>
+    </row>
+    <row r="99" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O99">
+        <v>1450</v>
+      </c>
+      <c r="P99">
+        <v>1432.7486720541101</v>
+      </c>
+      <c r="Q99">
+        <v>0.219382234002305</v>
+      </c>
+    </row>
+    <row r="100" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O100">
+        <v>1500</v>
+      </c>
+      <c r="P100">
+        <v>1796.9005004027799</v>
+      </c>
+      <c r="Q100">
+        <v>0.20365959491426</v>
+      </c>
+    </row>
+    <row r="101" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O101">
+        <v>1550</v>
+      </c>
+      <c r="P101">
+        <v>2892.1139593599</v>
+      </c>
+      <c r="Q101">
+        <v>0.158325186568887</v>
+      </c>
+    </row>
+    <row r="102" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O102">
+        <v>1600</v>
+      </c>
+      <c r="P102">
+        <v>1970.72264561305</v>
+      </c>
+      <c r="Q102">
+        <v>0.191685765769427</v>
+      </c>
+    </row>
+    <row r="103" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O103">
+        <v>1650</v>
+      </c>
+      <c r="P103">
+        <v>2309.89499678223</v>
+      </c>
+      <c r="Q103">
+        <v>0.170380936685288</v>
+      </c>
+    </row>
+    <row r="104" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O104">
+        <v>1700</v>
+      </c>
+      <c r="P104">
+        <v>1773.82918058104</v>
+      </c>
+      <c r="Q104">
+        <v>0.222106207164386</v>
+      </c>
+    </row>
+    <row r="105" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O105">
+        <v>1750</v>
+      </c>
+      <c r="P105">
+        <v>2710.6062271165301</v>
+      </c>
+      <c r="Q105">
+        <v>0.18234959551282001</v>
+      </c>
+    </row>
+    <row r="106" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O106">
+        <v>1800</v>
+      </c>
+      <c r="P106">
+        <v>2459.9049871186699</v>
+      </c>
+      <c r="Q106">
+        <v>0.19859406813286901</v>
+      </c>
+    </row>
+    <row r="107" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O107">
+        <v>1850</v>
+      </c>
+      <c r="P107">
+        <v>2614.8475169836502</v>
+      </c>
+      <c r="Q107">
+        <v>0.167559187025422</v>
+      </c>
+    </row>
+    <row r="108" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O108">
+        <v>1900</v>
+      </c>
+      <c r="P108">
+        <v>2849.9520924339299</v>
+      </c>
+      <c r="Q108">
+        <v>0.17453894775659401</v>
+      </c>
+    </row>
+    <row r="109" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O109">
+        <v>1950</v>
+      </c>
+      <c r="P109">
+        <v>2948.3075910205198</v>
+      </c>
+      <c r="Q109">
+        <v>0.184825757017749</v>
+      </c>
+    </row>
+    <row r="110" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O110">
+        <v>2000</v>
+      </c>
+      <c r="P110">
+        <v>3001.6553932842198</v>
+      </c>
+      <c r="Q110">
+        <v>0.16312290877140501</v>
+      </c>
+    </row>
+    <row r="111" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O111">
+        <v>2050</v>
+      </c>
+      <c r="P111">
+        <v>4493.2166727721797</v>
+      </c>
+      <c r="Q111">
+        <v>0.115523264350486</v>
+      </c>
+    </row>
+    <row r="112" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O112">
+        <v>2100</v>
+      </c>
+      <c r="P112">
+        <v>2891.06542106697</v>
+      </c>
+      <c r="Q112">
+        <v>0.20395642192796601</v>
+      </c>
+    </row>
+    <row r="113" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O113">
+        <v>2150</v>
+      </c>
+      <c r="P113">
+        <v>3372.60137963649</v>
+      </c>
+      <c r="Q113">
+        <v>0.155148532084182</v>
+      </c>
+    </row>
+    <row r="114" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O114">
+        <v>2200</v>
+      </c>
+      <c r="P114">
+        <v>3747.2281769567398</v>
+      </c>
+      <c r="Q114">
+        <v>9.6588360764852096E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O115">
+        <v>2250</v>
+      </c>
+      <c r="P115">
+        <v>3523.9566430761001</v>
+      </c>
+      <c r="Q115">
+        <v>0.163403478812011</v>
+      </c>
+    </row>
+    <row r="116" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O116">
+        <v>2300</v>
+      </c>
+      <c r="P116">
+        <v>4350.1871969449703</v>
+      </c>
+      <c r="Q116">
+        <v>0.155972926055157</v>
+      </c>
+    </row>
+    <row r="117" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O117">
+        <v>2350</v>
+      </c>
+      <c r="P117">
+        <v>5345.9817273553799</v>
+      </c>
+      <c r="Q117">
+        <v>0.14730399923268001</v>
+      </c>
+    </row>
+    <row r="118" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O118">
+        <v>2400</v>
+      </c>
+      <c r="P118">
+        <v>4161.4843050938798</v>
+      </c>
+      <c r="Q118">
+        <v>0.17885718181917901</v>
+      </c>
+    </row>
+    <row r="119" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O119">
+        <v>2450</v>
+      </c>
+      <c r="P119">
+        <v>4033.0548731757199</v>
+      </c>
+      <c r="Q119">
+        <v>0.214111781122688</v>
+      </c>
+    </row>
+    <row r="120" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O120">
+        <v>2500</v>
+      </c>
+      <c r="P120">
+        <v>3960.3264349604101</v>
+      </c>
+      <c r="Q120">
+        <v>0.13522229792388901</v>
+      </c>
+    </row>
+    <row r="121" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O121">
+        <v>2550</v>
+      </c>
+      <c r="P121">
+        <v>3797.4671754670599</v>
+      </c>
+      <c r="Q121">
+        <v>0.14961517684571399</v>
+      </c>
+    </row>
+    <row r="122" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O122">
+        <v>2600</v>
+      </c>
+      <c r="P122">
+        <v>7076.7880877805601</v>
+      </c>
+      <c r="Q122">
+        <v>3.0247426418298001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O123">
+        <v>2650</v>
+      </c>
+      <c r="P123">
+        <v>3005.8315645365201</v>
+      </c>
+      <c r="Q123">
+        <v>0.18458617524614301</v>
+      </c>
+    </row>
+    <row r="124" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O124">
+        <v>2700</v>
+      </c>
+      <c r="P124">
+        <v>4643.5684835664497</v>
+      </c>
+      <c r="Q124">
+        <v>0.153771677658917</v>
+      </c>
+    </row>
+    <row r="125" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O125">
+        <v>2750</v>
+      </c>
+      <c r="P125">
+        <v>2582.3912609209501</v>
+      </c>
+      <c r="Q125">
+        <v>0.18988147283182</v>
+      </c>
+    </row>
+    <row r="126" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O126">
+        <v>2800</v>
+      </c>
+      <c r="P126">
+        <v>5391.9188024354798</v>
+      </c>
+      <c r="Q126">
+        <v>0.104819868688265</v>
+      </c>
+    </row>
+    <row r="127" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O127">
+        <v>2850</v>
+      </c>
+      <c r="P127">
+        <v>6045.7874253280397</v>
+      </c>
+      <c r="Q127">
+        <v>0.118198647563469</v>
+      </c>
+    </row>
+    <row r="128" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O128">
+        <v>2900</v>
+      </c>
+      <c r="P128">
+        <v>3777.7311773513602</v>
+      </c>
+      <c r="Q128">
+        <v>0.12771862180636201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O129">
+        <v>2950</v>
+      </c>
+      <c r="P129">
+        <v>2922.7718243116801</v>
+      </c>
+      <c r="Q129">
+        <v>0.17902922044514499</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O130">
+        <v>3000</v>
+      </c>
+      <c r="P130">
+        <v>3244.2384140139302</v>
+      </c>
+      <c r="Q130">
+        <v>0.16679973722615299</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
         <v>16</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E135" t="s">
         <v>17</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O135" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
-      <c r="A88" t="s">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>8</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B136" t="s">
         <v>9</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C136" t="s">
         <v>10</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E136" t="s">
         <v>8</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F136" t="s">
         <v>9</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G136" t="s">
         <v>10</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I136" t="s">
         <v>11</v>
       </c>
-      <c r="J88">
+      <c r="J136">
         <v>2</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K136" t="s">
         <v>18</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O136" t="s">
         <v>8</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P136" t="s">
         <v>9</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="Q136" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
-      <c r="A89">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A137">
         <v>100</v>
       </c>
-      <c r="B89">
+      <c r="B137">
         <v>205.21974773749</v>
       </c>
-      <c r="C89">
+      <c r="C137">
         <v>0.33583037633511398</v>
       </c>
-      <c r="E89">
+      <c r="E137">
         <v>100</v>
       </c>
-      <c r="F89">
+      <c r="F137">
         <v>49.907119959990197</v>
       </c>
-      <c r="G89">
+      <c r="G137">
         <v>0.45575730845538798</v>
       </c>
-      <c r="I89">
+      <c r="I137">
         <v>100</v>
       </c>
-      <c r="J89">
+      <c r="J137">
         <v>501</v>
       </c>
-      <c r="K89">
+      <c r="K137">
         <v>251</v>
       </c>
-      <c r="L89">
+      <c r="L137">
         <v>305.76992897169703</v>
       </c>
-      <c r="M89">
+      <c r="M137">
         <v>0.31265311987799299</v>
       </c>
-      <c r="O89">
+      <c r="O137">
         <v>100</v>
       </c>
-      <c r="P89">
+      <c r="P137">
         <v>103.494720238677</v>
       </c>
-      <c r="Q89">
+      <c r="Q137">
         <v>0.398044604256309</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
-      <c r="A90">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A138">
         <v>150</v>
       </c>
-      <c r="B90">
+      <c r="B138">
         <v>330.78929105140497</v>
       </c>
-      <c r="C90">
+      <c r="C138">
         <v>0.29585578410149199</v>
       </c>
-      <c r="E90">
+      <c r="E138">
         <v>150</v>
       </c>
-      <c r="F90">
+      <c r="F138">
         <v>75.542002355266504</v>
       </c>
-      <c r="G90">
+      <c r="G138">
         <v>0.418145348662324</v>
       </c>
-      <c r="I90">
+      <c r="I138">
         <v>150</v>
       </c>
-      <c r="J90">
+      <c r="J138">
         <v>751</v>
       </c>
-      <c r="K90">
+      <c r="K138">
         <v>371</v>
       </c>
-      <c r="L90">
+      <c r="L138">
         <v>466.931199458631</v>
       </c>
-      <c r="M90">
+      <c r="M138">
         <v>0.28302114215056001</v>
       </c>
-      <c r="O90">
+      <c r="O138">
         <v>150</v>
       </c>
-      <c r="P90">
+      <c r="P138">
         <v>161.99042980926899</v>
       </c>
-      <c r="Q90">
+      <c r="Q138">
         <v>0.348064866937491</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
-      <c r="A91">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A139">
         <v>200</v>
       </c>
-      <c r="B91">
+      <c r="B139">
         <v>470.75242416536099</v>
       </c>
-      <c r="C91">
+      <c r="C139">
         <v>0.26783454448878302</v>
       </c>
-      <c r="E91">
+      <c r="E139">
         <v>200</v>
       </c>
-      <c r="F91">
+      <c r="F139">
         <v>100.672103099381</v>
       </c>
-      <c r="G91">
+      <c r="G139">
         <v>0.39490443534090403</v>
       </c>
-      <c r="I91">
+      <c r="I139">
         <v>200</v>
       </c>
-      <c r="J91">
+      <c r="J139">
         <v>1001</v>
       </c>
-      <c r="K91">
+      <c r="K139">
         <v>501</v>
       </c>
-      <c r="L91">
+      <c r="L139">
         <v>600.58124261165403</v>
       </c>
-      <c r="M91">
+      <c r="M139">
         <v>0.27187142085219201</v>
       </c>
-      <c r="O91">
+      <c r="O139">
         <v>200</v>
       </c>
-      <c r="P91">
+      <c r="P139">
         <v>192.81021454406701</v>
       </c>
-      <c r="Q91">
+      <c r="Q139">
         <v>0.33901922530079898</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
-      <c r="A92">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A140">
         <v>250</v>
       </c>
-      <c r="B92">
+      <c r="B140">
         <v>591.66749527878801</v>
       </c>
-      <c r="C92">
+      <c r="C140">
         <v>0.25303335218505701</v>
       </c>
-      <c r="E92">
+      <c r="E140">
         <v>250</v>
       </c>
-      <c r="F92">
+      <c r="F140">
         <v>126.115031169105</v>
       </c>
-      <c r="G92">
+      <c r="G140">
         <v>0.37134363462314202</v>
       </c>
-      <c r="I92">
+      <c r="I140">
         <v>250</v>
       </c>
-      <c r="J92">
+      <c r="J140">
         <v>1251</v>
       </c>
-      <c r="K92">
+      <c r="K140">
         <v>621</v>
       </c>
-      <c r="L92">
+      <c r="L140">
         <v>814.75806391975198</v>
       </c>
-      <c r="M92">
+      <c r="M140">
         <v>0.24581766353684101</v>
       </c>
-      <c r="O92">
+      <c r="O140">
         <v>250</v>
       </c>
-      <c r="P92">
+      <c r="P140">
         <v>287.491706423398</v>
       </c>
-      <c r="Q92">
+      <c r="Q140">
         <v>0.31128389019244102</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
-      <c r="A93">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A141">
         <v>300</v>
       </c>
-      <c r="B93">
+      <c r="B141">
         <v>720.69876158268301</v>
       </c>
-      <c r="C93">
+      <c r="C141">
         <v>0.24502572872296199</v>
       </c>
-      <c r="E93">
+      <c r="E141">
         <v>300</v>
       </c>
-      <c r="F93">
+      <c r="F141">
         <v>149.04927766462799</v>
       </c>
-      <c r="G93">
+      <c r="G141">
         <v>0.35730270726122598</v>
       </c>
-      <c r="I93">
+      <c r="I141">
         <v>300</v>
       </c>
-      <c r="J93">
+      <c r="J141">
         <v>1501</v>
       </c>
-      <c r="K93">
+      <c r="K141">
         <v>751</v>
       </c>
-      <c r="L93">
+      <c r="L141">
         <v>1052.03854317287</v>
       </c>
-      <c r="M93">
+      <c r="M141">
         <v>0.22994468357373801</v>
       </c>
-      <c r="O93">
+      <c r="O141">
         <v>300</v>
       </c>
-      <c r="P93">
+      <c r="P141">
         <v>419.51282750684601</v>
       </c>
-      <c r="Q93">
+      <c r="Q141">
         <v>0.296849540946787</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
-      <c r="A94">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A142">
         <v>350</v>
       </c>
-      <c r="B94">
+      <c r="B142">
         <v>867.50131664340199</v>
       </c>
-      <c r="C94">
+      <c r="C142">
         <v>0.230319817240106</v>
       </c>
-      <c r="E94">
+      <c r="E142">
         <v>350</v>
       </c>
-      <c r="F94">
+      <c r="F142">
         <v>174.515360908003</v>
       </c>
-      <c r="G94">
+      <c r="G142">
         <v>0.34524887423450001</v>
       </c>
-      <c r="I94">
+      <c r="I142">
         <v>350</v>
       </c>
-      <c r="J94">
+      <c r="J142">
         <v>1751</v>
       </c>
-      <c r="K94">
+      <c r="K142">
         <v>871</v>
       </c>
-      <c r="L94">
+      <c r="L142">
         <v>1124.9928495030599</v>
       </c>
-      <c r="M94">
+      <c r="M142">
         <v>0.23666217529508099</v>
       </c>
-      <c r="O94">
+      <c r="O142">
         <v>350</v>
       </c>
-      <c r="P94">
+      <c r="P142">
         <v>423.05515892444799</v>
       </c>
-      <c r="Q94">
+      <c r="Q142">
         <v>0.28089779962402101</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
-      <c r="A95">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A143">
         <v>400</v>
       </c>
-      <c r="B95">
+      <c r="B143">
         <v>986.24521085053198</v>
       </c>
-      <c r="C95">
+      <c r="C143">
         <v>0.22425951968487901</v>
       </c>
-      <c r="E95">
+      <c r="E143">
         <v>400</v>
       </c>
-      <c r="F95">
+      <c r="F143">
         <v>200.569115070566</v>
       </c>
-      <c r="G95">
+      <c r="G143">
         <v>0.331296922535604</v>
       </c>
-      <c r="I95">
+      <c r="I143">
         <v>400</v>
       </c>
-      <c r="J95">
+      <c r="J143">
         <v>2001</v>
       </c>
-      <c r="K95">
+      <c r="K143">
         <v>1001</v>
       </c>
-      <c r="L95">
+      <c r="L143">
         <v>1206.6386367121299</v>
       </c>
-      <c r="M95">
+      <c r="M143">
         <v>0.21442562899811801</v>
       </c>
-      <c r="O95">
+      <c r="O143">
         <v>400</v>
       </c>
-      <c r="P95">
+      <c r="P143">
         <v>418.26953388881401</v>
       </c>
-      <c r="Q95">
+      <c r="Q143">
         <v>0.26684555890962403</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
-      <c r="A96">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A144">
         <v>450</v>
       </c>
-      <c r="B96">
+      <c r="B144">
         <v>1101.6126132178299</v>
       </c>
-      <c r="C96">
+      <c r="C144">
         <v>0.21325558356361399</v>
       </c>
-      <c r="E96">
+      <c r="E144">
         <v>450</v>
       </c>
-      <c r="F96">
+      <c r="F144">
         <v>223.15165154709399</v>
       </c>
-      <c r="G96">
+      <c r="G144">
         <v>0.32310868407246002</v>
       </c>
-      <c r="I96">
+      <c r="I144">
         <v>450</v>
       </c>
-      <c r="J96">
+      <c r="J144">
         <v>2251</v>
       </c>
-      <c r="K96">
+      <c r="K144">
         <v>1121</v>
       </c>
-      <c r="L96">
+      <c r="L144">
         <v>1557.05233674074</v>
       </c>
-      <c r="M96">
+      <c r="M144">
         <v>0.19198547081516201</v>
       </c>
-      <c r="O96">
+      <c r="O144">
         <v>450</v>
       </c>
-      <c r="P96">
+      <c r="P144">
         <v>614.08866137474297</v>
       </c>
-      <c r="Q96">
+      <c r="Q144">
         <v>0.232613537755233</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
-      <c r="A97">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A145">
         <v>500</v>
       </c>
-      <c r="B97">
+      <c r="B145">
         <v>1231.0022837461499</v>
       </c>
-      <c r="C97">
+      <c r="C145">
         <v>0.196899186813527</v>
       </c>
-      <c r="E97">
+      <c r="E145">
         <v>500</v>
       </c>
-      <c r="F97">
+      <c r="F145">
         <v>243.914000960094</v>
       </c>
-      <c r="G97">
+      <c r="G145">
         <v>0.31226770477374399</v>
       </c>
-      <c r="I97">
+      <c r="I145">
         <v>500</v>
       </c>
-      <c r="J97">
+      <c r="J145">
         <v>2501</v>
       </c>
-      <c r="K97">
+      <c r="K145">
         <v>1251</v>
       </c>
-      <c r="L97">
+      <c r="L145">
         <v>1651.4107687396399</v>
       </c>
-      <c r="M97">
+      <c r="M145">
         <v>0.20563480166567899</v>
       </c>
-      <c r="O97">
+      <c r="O145">
         <v>500</v>
       </c>
-      <c r="P97">
+      <c r="P145">
         <v>585.85411892289596</v>
       </c>
-      <c r="Q97">
+      <c r="Q145">
         <v>0.28364695938988999</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
-      <c r="A98">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A146">
         <v>550</v>
       </c>
-      <c r="B98">
+      <c r="B146">
         <v>1377.96897608874</v>
       </c>
-      <c r="C98">
+      <c r="C146">
         <v>0.187952038102629</v>
       </c>
-      <c r="E98">
+      <c r="E146">
         <v>550</v>
       </c>
-      <c r="F98">
+      <c r="F146">
         <v>268.637150453206</v>
       </c>
-      <c r="G98">
+      <c r="G146">
         <v>0.30730339368382598</v>
       </c>
-      <c r="I98">
+      <c r="I146">
         <v>550</v>
       </c>
-      <c r="J98">
+      <c r="J146">
         <v>2751</v>
       </c>
-      <c r="K98">
+      <c r="K146">
         <v>1371</v>
       </c>
-      <c r="L98">
+      <c r="L146">
         <v>1830.78323536227</v>
       </c>
-      <c r="M98">
+      <c r="M146">
         <v>0.20765153461924901</v>
       </c>
-      <c r="O98">
+      <c r="O146">
         <v>550</v>
       </c>
-      <c r="P98">
+      <c r="P146">
         <v>696.62746561633799</v>
       </c>
-      <c r="Q98">
+      <c r="Q146">
         <v>0.27569952776158102</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
-      <c r="A99">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A147">
         <v>600</v>
       </c>
-      <c r="B99">
+      <c r="B147">
         <v>1506.0325230784199</v>
       </c>
-      <c r="C99">
+      <c r="C147">
         <v>0.18561750822472001</v>
       </c>
-      <c r="E99">
+      <c r="E147">
         <v>600</v>
       </c>
-      <c r="F99">
+      <c r="F147">
         <v>287.138747427422</v>
       </c>
-      <c r="G99">
+      <c r="G147">
         <v>0.302507281586951</v>
       </c>
-      <c r="I99">
+      <c r="I147">
         <v>600</v>
       </c>
-      <c r="J99">
+      <c r="J147">
         <v>3001</v>
       </c>
-      <c r="K99">
+      <c r="K147">
         <v>1501</v>
       </c>
-      <c r="L99">
+      <c r="L147">
         <v>2067.4287249142699</v>
       </c>
-      <c r="M99">
+      <c r="M147">
         <v>0.20219984790363299</v>
       </c>
-      <c r="O99">
+      <c r="O147">
         <v>600</v>
       </c>
-      <c r="P99">
+      <c r="P147">
         <v>772.80614521757195</v>
       </c>
-      <c r="Q99">
+      <c r="Q147">
         <v>0.25602769394571501</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
-      <c r="A100">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A148">
         <v>650</v>
       </c>
-      <c r="B100">
+      <c r="B148">
         <v>1741.4363117371799</v>
       </c>
-      <c r="C100">
+      <c r="C148">
         <v>0.18185060115906401</v>
       </c>
-      <c r="E100">
+      <c r="E148">
         <v>650</v>
       </c>
-      <c r="F100">
+      <c r="F148">
         <v>309.32267220212998</v>
       </c>
-      <c r="G100">
+      <c r="G148">
         <v>0.29808156215125098</v>
       </c>
-      <c r="I100">
+      <c r="I148">
         <v>650</v>
       </c>
-      <c r="J100">
+      <c r="J148">
         <v>3251</v>
       </c>
-      <c r="K100">
+      <c r="K148">
         <v>1621</v>
       </c>
-      <c r="L100">
+      <c r="L148">
         <v>2175.4121530884399</v>
       </c>
-      <c r="M100">
+      <c r="M148">
         <v>0.186258267611667</v>
       </c>
-      <c r="O100">
+      <c r="O148">
         <v>650</v>
       </c>
-      <c r="P100">
+      <c r="P148">
         <v>805.84585601165202</v>
       </c>
-      <c r="Q100">
+      <c r="Q148">
         <v>0.23904525807876001</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
-      <c r="A101">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A149">
         <v>700</v>
       </c>
-      <c r="B101">
+      <c r="B149">
         <v>1970.9711773101401</v>
       </c>
-      <c r="C101">
+      <c r="C149">
         <v>0.156535067669135</v>
       </c>
-      <c r="E101">
+      <c r="E149">
         <v>700</v>
       </c>
-      <c r="F101">
+      <c r="F149">
         <v>334.073179313747</v>
       </c>
-      <c r="G101">
+      <c r="G149">
         <v>0.29468989895215097</v>
       </c>
-      <c r="I101">
+      <c r="I149">
         <v>700</v>
       </c>
-      <c r="J101">
+      <c r="J149">
         <v>3501</v>
       </c>
-      <c r="K101">
+      <c r="K149">
         <v>1751</v>
       </c>
-      <c r="L101">
+      <c r="L149">
         <v>2308.7103574408602</v>
       </c>
-      <c r="M101">
+      <c r="M149">
         <v>0.19790817315682699</v>
       </c>
-      <c r="O101">
+      <c r="O149">
         <v>700</v>
       </c>
-      <c r="P101">
+      <c r="P149">
         <v>882.74087157047097</v>
       </c>
-      <c r="Q101">
+      <c r="Q149">
         <v>0.22763225697197101</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
-      <c r="A102">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A150">
         <v>750</v>
       </c>
-      <c r="B102">
+      <c r="B150">
         <v>2067.5874602850099</v>
       </c>
-      <c r="C102">
+      <c r="C150">
         <v>0.154971832194231</v>
       </c>
-      <c r="E102">
+      <c r="E150">
         <v>750</v>
       </c>
-      <c r="F102">
+      <c r="F150">
         <v>359.05123442368898</v>
       </c>
-      <c r="G102">
+      <c r="G150">
         <v>0.28944900636381299</v>
       </c>
-      <c r="I102">
+      <c r="I150">
         <v>750</v>
       </c>
-      <c r="J102">
+      <c r="J150">
         <v>3751</v>
       </c>
-      <c r="K102">
+      <c r="K150">
         <v>1871</v>
       </c>
-      <c r="L102">
+      <c r="L150">
         <v>2408.5039558885701</v>
       </c>
-      <c r="M102">
+      <c r="M150">
         <v>0.19306373224239901</v>
       </c>
-      <c r="O102">
+      <c r="O150">
         <v>750</v>
       </c>
-      <c r="P102">
+      <c r="P150">
         <v>892.10072215132504</v>
       </c>
-      <c r="Q102">
+      <c r="Q150">
         <v>0.23929314272031499</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
-      <c r="A103">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A151">
         <v>800</v>
       </c>
-      <c r="B103">
+      <c r="B151">
         <v>2203.7529355384199</v>
       </c>
-      <c r="C103">
+      <c r="C151">
         <v>0.15310445753218299</v>
       </c>
-      <c r="E103">
+      <c r="E151">
         <v>800</v>
       </c>
-      <c r="F103">
+      <c r="F151">
         <v>377.17996071737701</v>
       </c>
-      <c r="G103">
+      <c r="G151">
         <v>0.28567092322673698</v>
       </c>
-      <c r="I103">
+      <c r="I151">
         <v>800</v>
       </c>
-      <c r="J103">
+      <c r="J151">
         <v>4001</v>
       </c>
-      <c r="K103">
+      <c r="K151">
         <v>2001</v>
       </c>
-      <c r="L103">
+      <c r="L151">
         <v>2591.11926901876</v>
       </c>
-      <c r="M103">
+      <c r="M151">
         <v>0.16606116881278399</v>
       </c>
-      <c r="O103">
+      <c r="O151">
         <v>800</v>
       </c>
-      <c r="P103">
+      <c r="P151">
         <v>826.83821405003096</v>
       </c>
-      <c r="Q103">
+      <c r="Q151">
         <v>0.22300149949272499</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
-      <c r="A104">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A152">
         <v>850</v>
       </c>
-      <c r="B104">
+      <c r="B152">
         <v>2300.5486618445002</v>
       </c>
-      <c r="C104">
+      <c r="C152">
         <v>0.15208546278607399</v>
       </c>
-      <c r="E104">
+      <c r="E152">
         <v>850</v>
       </c>
-      <c r="F104">
+      <c r="F152">
         <v>397.805778531952</v>
       </c>
-      <c r="G104">
+      <c r="G152">
         <v>0.28304581532511702</v>
       </c>
-      <c r="I104">
+      <c r="I152">
         <v>850</v>
       </c>
-      <c r="J104">
+      <c r="J152">
         <v>4251</v>
       </c>
-      <c r="K104">
+      <c r="K152">
         <v>2121</v>
       </c>
-      <c r="L104">
+      <c r="L152">
         <v>2907.3261344327302</v>
       </c>
-      <c r="M104">
+      <c r="M152">
         <v>0.15995155305387301</v>
       </c>
-      <c r="O104">
+      <c r="O152">
         <v>850</v>
       </c>
-      <c r="P104">
+      <c r="P152">
         <v>1044.6655814226399</v>
       </c>
-      <c r="Q104">
+      <c r="Q152">
         <v>0.219049532859484</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
-      <c r="A105">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A153">
         <v>900</v>
       </c>
-      <c r="B105">
+      <c r="B153">
         <v>2392.0635139576798</v>
       </c>
-      <c r="C105">
+      <c r="C153">
         <v>0.150921053082647</v>
       </c>
-      <c r="E105">
+      <c r="E153">
         <v>900</v>
       </c>
-      <c r="F105">
+      <c r="F153">
         <v>419.31456940928501</v>
       </c>
-      <c r="G105">
+      <c r="G153">
         <v>0.27629971942485698</v>
       </c>
-      <c r="I105">
+      <c r="I153">
         <v>900</v>
       </c>
-      <c r="J105">
+      <c r="J153">
         <v>4501</v>
       </c>
-      <c r="K105">
+      <c r="K153">
         <v>2251</v>
       </c>
-      <c r="L105">
+      <c r="L153">
         <v>3213.1566292911898</v>
       </c>
-      <c r="M105">
+      <c r="M153">
         <v>0.15309210052881</v>
       </c>
-      <c r="O105">
+      <c r="O153">
         <v>900</v>
       </c>
-      <c r="P105">
+      <c r="P153">
         <v>1243.08363246114</v>
       </c>
-      <c r="Q105">
+      <c r="Q153">
         <v>0.209437268181243</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
-      <c r="A106">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A154">
         <v>950</v>
       </c>
-      <c r="B106">
+      <c r="B154">
         <v>2479.7550213448899</v>
       </c>
-      <c r="C106">
+      <c r="C154">
         <v>0.150114168366103</v>
       </c>
-      <c r="E106">
+      <c r="E154">
         <v>950</v>
       </c>
-      <c r="F106">
+      <c r="F154">
         <v>437.340402714535</v>
       </c>
-      <c r="G106">
+      <c r="G154">
         <v>0.273567553929284</v>
       </c>
-      <c r="I106">
+      <c r="I154">
         <v>950</v>
       </c>
-      <c r="J106">
+      <c r="J154">
         <v>4751</v>
       </c>
-      <c r="K106">
+      <c r="K154">
         <v>2371</v>
       </c>
-      <c r="L106">
+      <c r="L154">
         <v>3226.15301186036</v>
       </c>
-      <c r="M106">
+      <c r="M154">
         <v>0.155819528327659</v>
       </c>
-      <c r="O106">
+      <c r="O154">
         <v>950</v>
       </c>
-      <c r="P106">
+      <c r="P154">
         <v>1295.5196124532499</v>
       </c>
-      <c r="Q106">
+      <c r="Q154">
         <v>0.20011711079724001</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
-      <c r="A107">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A155">
         <v>1000</v>
       </c>
-      <c r="B107">
+      <c r="B155">
         <v>2672.8074017398699</v>
       </c>
-      <c r="C107">
+      <c r="C155">
         <v>0.14925446344853599</v>
       </c>
-      <c r="E107">
+      <c r="E155">
         <v>1000</v>
       </c>
-      <c r="F107">
+      <c r="F155">
         <v>465.45754396427202</v>
       </c>
-      <c r="G107">
+      <c r="G155">
         <v>0.271226605424566</v>
       </c>
-      <c r="I107">
+      <c r="I155">
         <v>1000</v>
       </c>
-      <c r="J107">
+      <c r="J155">
         <v>5001</v>
       </c>
-      <c r="K107">
+      <c r="K155">
         <v>2501</v>
       </c>
-      <c r="L107">
+      <c r="L155">
         <v>3248.8449083842502</v>
       </c>
-      <c r="M107">
+      <c r="M155">
         <v>0.174595246675325</v>
       </c>
-      <c r="O107">
+      <c r="O155">
         <v>1000</v>
       </c>
-      <c r="P107">
+      <c r="P155">
         <v>1148.4941064698201</v>
       </c>
-      <c r="Q107">
+      <c r="Q155">
         <v>0.22819589669889201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O156">
+        <v>1050</v>
+      </c>
+      <c r="P156">
+        <v>1413.2750271316099</v>
+      </c>
+      <c r="Q156">
+        <v>0.21180541790045401</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O157">
+        <v>1100</v>
+      </c>
+      <c r="P157">
+        <v>1570.28988716194</v>
+      </c>
+      <c r="Q157">
+        <v>0.21892732773258</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O158">
+        <v>1150</v>
+      </c>
+      <c r="P158">
+        <v>1906.70425021594</v>
+      </c>
+      <c r="Q158">
+        <v>0.16812958212552401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O159">
+        <v>1200</v>
+      </c>
+      <c r="P159">
+        <v>2183.1979854108999</v>
+      </c>
+      <c r="Q159">
+        <v>0.17864046465376399</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O160">
+        <v>1250</v>
+      </c>
+      <c r="P160">
+        <v>1712.8526025967899</v>
+      </c>
+      <c r="Q160">
+        <v>0.170777448942423</v>
+      </c>
+    </row>
+    <row r="161" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O161">
+        <v>1300</v>
+      </c>
+      <c r="P161">
+        <v>2378.5508786135001</v>
+      </c>
+      <c r="Q161">
+        <v>0.170171164059848</v>
+      </c>
+    </row>
+    <row r="162" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O162">
+        <v>1350</v>
+      </c>
+      <c r="P162">
+        <v>1972.1622427836501</v>
+      </c>
+      <c r="Q162">
+        <v>0.19623845804152201</v>
+      </c>
+    </row>
+    <row r="163" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O163">
+        <v>1400</v>
+      </c>
+      <c r="P163">
+        <v>1873.57120948685</v>
+      </c>
+      <c r="Q163">
+        <v>0.20939824886549399</v>
+      </c>
+    </row>
+    <row r="164" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O164">
+        <v>1450</v>
+      </c>
+      <c r="P164">
+        <v>1432.7486720541101</v>
+      </c>
+      <c r="Q164">
+        <v>0.200655555958661</v>
+      </c>
+    </row>
+    <row r="165" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O165">
+        <v>1500</v>
+      </c>
+      <c r="P165">
+        <v>1796.9005004027799</v>
+      </c>
+      <c r="Q165">
+        <v>0.18446677192274999</v>
+      </c>
+    </row>
+    <row r="166" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O166">
+        <v>1550</v>
+      </c>
+      <c r="P166">
+        <v>2892.1139593599</v>
+      </c>
+      <c r="Q166">
+        <v>0.14330582934236299</v>
+      </c>
+    </row>
+    <row r="167" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O167">
+        <v>1600</v>
+      </c>
+      <c r="P167">
+        <v>1970.72264561305</v>
+      </c>
+      <c r="Q167">
+        <v>0.174276555954156</v>
+      </c>
+    </row>
+    <row r="168" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O168">
+        <v>1650</v>
+      </c>
+      <c r="P168">
+        <v>2309.89499678223</v>
+      </c>
+      <c r="Q168">
+        <v>0.15437899857481899</v>
+      </c>
+    </row>
+    <row r="169" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O169">
+        <v>1700</v>
+      </c>
+      <c r="P169">
+        <v>1773.82918058104</v>
+      </c>
+      <c r="Q169">
+        <v>0.205346568772827</v>
+      </c>
+    </row>
+    <row r="170" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O170">
+        <v>1750</v>
+      </c>
+      <c r="P170">
+        <v>2710.6062271165301</v>
+      </c>
+      <c r="Q170">
+        <v>0.16663333994158799</v>
+      </c>
+    </row>
+    <row r="171" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O171">
+        <v>1800</v>
+      </c>
+      <c r="P171">
+        <v>2459.9049871186699</v>
+      </c>
+      <c r="Q171">
+        <v>0.18403755748530201</v>
+      </c>
+    </row>
+    <row r="172" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O172">
+        <v>1850</v>
+      </c>
+      <c r="P172">
+        <v>2614.8475169836502</v>
+      </c>
+      <c r="Q172">
+        <v>0.15225560218473599</v>
+      </c>
+    </row>
+    <row r="173" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O173">
+        <v>1900</v>
+      </c>
+      <c r="P173">
+        <v>2849.9520924339299</v>
+      </c>
+      <c r="Q173">
+        <v>0.15952891437692299</v>
+      </c>
+    </row>
+    <row r="174" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O174">
+        <v>1950</v>
+      </c>
+      <c r="P174">
+        <v>2948.3075910205198</v>
+      </c>
+      <c r="Q174">
+        <v>0.170723204336484</v>
+      </c>
+    </row>
+    <row r="175" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O175">
+        <v>2000</v>
+      </c>
+      <c r="P175">
+        <v>3001.6553932842198</v>
+      </c>
+      <c r="Q175">
+        <v>0.148511972344118</v>
+      </c>
+    </row>
+    <row r="176" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O176">
+        <v>2050</v>
+      </c>
+      <c r="P176">
+        <v>4493.2166727721797</v>
+      </c>
+      <c r="Q176">
+        <v>0.106151261659025</v>
+      </c>
+    </row>
+    <row r="177" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O177">
+        <v>2100</v>
+      </c>
+      <c r="P177">
+        <v>2891.06542106697</v>
+      </c>
+      <c r="Q177">
+        <v>0.18944901953575999</v>
+      </c>
+    </row>
+    <row r="178" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O178">
+        <v>2150</v>
+      </c>
+      <c r="P178">
+        <v>3372.60137963649</v>
+      </c>
+      <c r="Q178">
+        <v>0.14145888018956901</v>
+      </c>
+    </row>
+    <row r="179" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O179">
+        <v>2200</v>
+      </c>
+      <c r="P179">
+        <v>3747.2281769567398</v>
+      </c>
+      <c r="Q179">
+        <v>8.5780619369772201E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O180">
+        <v>2250</v>
+      </c>
+      <c r="P180">
+        <v>3523.9566430761001</v>
+      </c>
+      <c r="Q180">
+        <v>0.15083779291993199</v>
+      </c>
+    </row>
+    <row r="181" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O181">
+        <v>2300</v>
+      </c>
+      <c r="P181">
+        <v>4350.1871969449703</v>
+      </c>
+      <c r="Q181">
+        <v>0.14278495052545401</v>
+      </c>
+    </row>
+    <row r="182" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O182">
+        <v>2350</v>
+      </c>
+      <c r="P182">
+        <v>5345.9817273553799</v>
+      </c>
+      <c r="Q182">
+        <v>0.13423534770234299</v>
+      </c>
+    </row>
+    <row r="183" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O183">
+        <v>2400</v>
+      </c>
+      <c r="P183">
+        <v>4161.4843050938798</v>
+      </c>
+      <c r="Q183">
+        <v>0.16545684793194401</v>
+      </c>
+    </row>
+    <row r="184" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O184">
+        <v>2450</v>
+      </c>
+      <c r="P184">
+        <v>4033.0548731757199</v>
+      </c>
+      <c r="Q184">
+        <v>0.20106652945363701</v>
+      </c>
+    </row>
+    <row r="185" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O185">
+        <v>2500</v>
+      </c>
+      <c r="P185">
+        <v>3960.3264349604101</v>
+      </c>
+      <c r="Q185">
+        <v>0.124964638117709</v>
+      </c>
+    </row>
+    <row r="186" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O186">
+        <v>2550</v>
+      </c>
+      <c r="P186">
+        <v>3797.4671754670599</v>
+      </c>
+      <c r="Q186">
+        <v>0.13737111268757801</v>
+      </c>
+    </row>
+    <row r="187" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O187">
+        <v>2600</v>
+      </c>
+      <c r="P187">
+        <v>7076.7880877805601</v>
+      </c>
+      <c r="Q187">
+        <v>2.2332787367953699E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O188">
+        <v>2650</v>
+      </c>
+      <c r="P188">
+        <v>3005.8315645365201</v>
+      </c>
+      <c r="Q188">
+        <v>0.17021694313826199</v>
+      </c>
+    </row>
+    <row r="189" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O189">
+        <v>2700</v>
+      </c>
+      <c r="P189">
+        <v>4643.5684835664497</v>
+      </c>
+      <c r="Q189">
+        <v>0.14147111245309901</v>
+      </c>
+    </row>
+    <row r="190" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O190">
+        <v>2750</v>
+      </c>
+      <c r="P190">
+        <v>2582.3912609209501</v>
+      </c>
+      <c r="Q190">
+        <v>0.17563251607546401</v>
+      </c>
+    </row>
+    <row r="191" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O191">
+        <v>2800</v>
+      </c>
+      <c r="P191">
+        <v>5391.9188024354798</v>
+      </c>
+      <c r="Q191">
+        <v>9.5473652547425E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O192">
+        <v>2850</v>
+      </c>
+      <c r="P192">
+        <v>6045.7874253280397</v>
+      </c>
+      <c r="Q192">
+        <v>0.10898003908041699</v>
+      </c>
+    </row>
+    <row r="193" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O193">
+        <v>2900</v>
+      </c>
+      <c r="P193">
+        <v>3777.7311773513602</v>
+      </c>
+      <c r="Q193">
+        <v>0.116949039093176</v>
+      </c>
+    </row>
+    <row r="194" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O194">
+        <v>2950</v>
+      </c>
+      <c r="P194">
+        <v>2922.7718243116801</v>
+      </c>
+      <c r="Q194">
+        <v>0.166124024003</v>
+      </c>
+    </row>
+    <row r="195" spans="15:17" x14ac:dyDescent="0.15">
+      <c r="O195">
+        <v>3000</v>
+      </c>
+      <c r="P195">
+        <v>3244.2384140139302</v>
+      </c>
+      <c r="Q195">
+        <v>0.153415929256769</v>
       </c>
     </row>
   </sheetData>
